--- a/baseline-lcia/hhv_hc_lcia.xlsx
+++ b/baseline-lcia/hhv_hc_lcia.xlsx
@@ -520,19 +520,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.82E-08</v>
+        <v>4.73E-05</v>
       </c>
       <c r="E4">
-        <v>1.24E-06</v>
+        <v>0.00154</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.57E-09</v>
+        <v>8.13E-06</v>
       </c>
       <c r="H4">
-        <v>2.1E-06</v>
+        <v>0.00259</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -546,19 +546,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.07E-06</v>
+        <v>0.00257</v>
       </c>
       <c r="E5">
-        <v>6.74E-05</v>
+        <v>0.0834</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.15E-07</v>
+        <v>0.000267</v>
       </c>
       <c r="H5">
-        <v>0.000114</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.98E-08</v>
+        <v>2.44E-05</v>
       </c>
       <c r="E6">
-        <v>6.42E-07</v>
+        <v>0.000795</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.6E-09</v>
+        <v>5.69E-06</v>
       </c>
       <c r="H6">
-        <v>1.08E-06</v>
+        <v>0.00134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.39E-06</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="E7">
-        <v>0.00024</v>
+        <v>0.297</v>
       </c>
       <c r="F7">
-        <v>3.44E-06</v>
+        <v>0.00426</v>
       </c>
       <c r="G7">
-        <v>1.9E-06</v>
+        <v>0.00235</v>
       </c>
       <c r="H7">
-        <v>0.000405</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -624,19 +624,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.87E-06</v>
+        <v>0.00355</v>
       </c>
       <c r="E8">
-        <v>9.339999999999999E-05</v>
+        <v>0.116</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.02E-05</v>
+        <v>0.0126</v>
       </c>
       <c r="H8">
-        <v>0.000158</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -650,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.2E-09</v>
+        <v>5.2E-06</v>
       </c>
       <c r="E9">
-        <v>1.37E-07</v>
+        <v>0.000169</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.94E-08</v>
+        <v>9.83E-05</v>
       </c>
       <c r="H9">
-        <v>2.31E-07</v>
+        <v>0.000285</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.52E-14</v>
+        <v>3.11E-11</v>
       </c>
       <c r="E10">
-        <v>8.18E-13</v>
+        <v>1.01E-09</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.95E-14</v>
+        <v>2.41E-11</v>
       </c>
       <c r="H10">
-        <v>1.38E-12</v>
+        <v>1.71E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.3E-13</v>
+        <v>7.79E-10</v>
       </c>
       <c r="E11">
-        <v>2.05E-11</v>
+        <v>2.53E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7.79E-12</v>
+        <v>9.65E-09</v>
       </c>
       <c r="H11">
-        <v>3.45E-11</v>
+        <v>4.27E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -728,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.25E-14</v>
+        <v>6.5E-11</v>
       </c>
       <c r="E12">
-        <v>1.71E-12</v>
+        <v>2.11E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7.3E-15</v>
+        <v>9.04E-12</v>
       </c>
       <c r="H12">
-        <v>2.88E-12</v>
+        <v>3.56E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -754,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.15E-08</v>
+        <v>1.42E-05</v>
       </c>
       <c r="E13">
-        <v>3.74E-07</v>
+        <v>0.000463</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9.89E-10</v>
+        <v>1.22E-06</v>
       </c>
       <c r="H13">
-        <v>6.31E-07</v>
+        <v>0.000781</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.21E-07</v>
+        <v>0.000274</v>
       </c>
       <c r="E14">
-        <v>7.19E-06</v>
+        <v>0.0089</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.71E-08</v>
+        <v>8.31E-05</v>
       </c>
       <c r="H14">
-        <v>1.21E-05</v>
+        <v>0.015</v>
       </c>
     </row>
   </sheetData>
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2.04E-10</v>
+        <v>2.4E-07</v>
       </c>
       <c r="D4">
-        <v>1.04E-08</v>
+        <v>1.22E-05</v>
       </c>
       <c r="E4">
-        <v>3.81E-07</v>
+        <v>0.000448</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.62E-10</v>
+        <v>7.8E-07</v>
       </c>
       <c r="H4">
-        <v>2.15E-06</v>
+        <v>0.00253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -887,22 +887,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>9.86E-09</v>
+        <v>1.16E-05</v>
       </c>
       <c r="D5">
-        <v>5.64E-07</v>
+        <v>0.000664</v>
       </c>
       <c r="E5">
-        <v>2.07E-05</v>
+        <v>0.0243</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.17E-08</v>
+        <v>2.56E-05</v>
       </c>
       <c r="H5">
-        <v>0.000117</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -913,22 +913,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.05E-10</v>
+        <v>1.23E-07</v>
       </c>
       <c r="D6">
-        <v>5.38E-09</v>
+        <v>6.33E-06</v>
       </c>
       <c r="E6">
-        <v>1.97E-07</v>
+        <v>0.000232</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.64E-10</v>
+        <v>5.46E-07</v>
       </c>
       <c r="H6">
-        <v>1.11E-06</v>
+        <v>0.00131</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -939,22 +939,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3.63E-08</v>
+        <v>4.27E-05</v>
       </c>
       <c r="D7">
-        <v>2.01E-06</v>
+        <v>0.00237</v>
       </c>
       <c r="E7">
-        <v>7.36E-05</v>
+        <v>0.0866</v>
       </c>
       <c r="F7">
-        <v>2.31E-06</v>
+        <v>0.00272</v>
       </c>
       <c r="G7">
-        <v>1.92E-07</v>
+        <v>0.000226</v>
       </c>
       <c r="H7">
-        <v>0.000416</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -965,22 +965,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1.96E-08</v>
+        <v>2.31E-05</v>
       </c>
       <c r="D8">
-        <v>7.82E-07</v>
+        <v>0.00092</v>
       </c>
       <c r="E8">
-        <v>2.86E-05</v>
+        <v>0.0337</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.02E-06</v>
+        <v>0.00121</v>
       </c>
       <c r="H8">
-        <v>0.000162</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -991,22 +991,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2.83E-11</v>
+        <v>3.33E-08</v>
       </c>
       <c r="D9">
-        <v>1.14E-09</v>
+        <v>1.35E-06</v>
       </c>
       <c r="E9">
-        <v>4.19E-08</v>
+        <v>4.93E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8.01E-09</v>
+        <v>9.42E-06</v>
       </c>
       <c r="H9">
-        <v>2.36E-07</v>
+        <v>0.000278</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1017,22 +1017,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1.83E-16</v>
+        <v>2.15E-13</v>
       </c>
       <c r="D10">
-        <v>6.84E-15</v>
+        <v>8.060000000000001E-12</v>
       </c>
       <c r="E10">
-        <v>2.51E-13</v>
+        <v>2.95E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.96E-15</v>
+        <v>2.31E-12</v>
       </c>
       <c r="H10">
-        <v>1.41E-12</v>
+        <v>1.66E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1043,22 +1043,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.6E-15</v>
+        <v>3.06E-12</v>
       </c>
       <c r="D11">
-        <v>1.71E-13</v>
+        <v>2.02E-10</v>
       </c>
       <c r="E11">
-        <v>6.28E-12</v>
+        <v>7.39E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7.86E-13</v>
+        <v>9.25E-10</v>
       </c>
       <c r="H11">
-        <v>3.54E-11</v>
+        <v>4.17E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1069,22 +1069,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.26E-14</v>
+        <v>1.48E-11</v>
       </c>
       <c r="D12">
-        <v>1.43E-14</v>
+        <v>1.68E-11</v>
       </c>
       <c r="E12">
-        <v>5.23E-13</v>
+        <v>6.16E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7.36E-16</v>
+        <v>8.66E-13</v>
       </c>
       <c r="H12">
-        <v>2.95E-12</v>
+        <v>3.48E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1095,22 +1095,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>5.17E-11</v>
+        <v>6.08E-08</v>
       </c>
       <c r="D13">
-        <v>3.13E-09</v>
+        <v>3.69E-06</v>
       </c>
       <c r="E13">
-        <v>1.15E-07</v>
+        <v>0.000135</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9.97E-11</v>
+        <v>1.17E-07</v>
       </c>
       <c r="H13">
-        <v>6.47E-07</v>
+        <v>0.000762</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1121,22 +1121,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.33E-09</v>
+        <v>1.57E-06</v>
       </c>
       <c r="D14">
-        <v>6.02E-08</v>
+        <v>7.09E-05</v>
       </c>
       <c r="E14">
-        <v>2.2E-06</v>
+        <v>0.0026</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.77E-09</v>
+        <v>7.97E-06</v>
       </c>
       <c r="H14">
-        <v>1.24E-05</v>
+        <v>0.0146</v>
       </c>
     </row>
   </sheetData>
@@ -1205,22 +1205,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2.3E-10</v>
+        <v>2.52E-07</v>
       </c>
       <c r="D4">
-        <v>5.58E-09</v>
+        <v>6.11E-06</v>
       </c>
       <c r="E4">
-        <v>2.28E-07</v>
+        <v>0.000249</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.51E-10</v>
+        <v>8.24E-07</v>
       </c>
       <c r="H4">
-        <v>2.23E-06</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1231,22 +1231,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.11E-08</v>
+        <v>1.22E-05</v>
       </c>
       <c r="D5">
-        <v>3.03E-07</v>
+        <v>0.000332</v>
       </c>
       <c r="E5">
-        <v>1.24E-05</v>
+        <v>0.0135</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.46E-08</v>
+        <v>2.7E-05</v>
       </c>
       <c r="H5">
-        <v>0.000121</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1257,22 +1257,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.18E-10</v>
+        <v>1.29E-07</v>
       </c>
       <c r="D6">
-        <v>2.88E-09</v>
+        <v>3.16E-06</v>
       </c>
       <c r="E6">
-        <v>1.18E-07</v>
+        <v>0.000129</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.26E-10</v>
+        <v>5.77E-07</v>
       </c>
       <c r="H6">
-        <v>1.15E-06</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1283,22 +1283,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>4.08E-08</v>
+        <v>4.48E-05</v>
       </c>
       <c r="D7">
-        <v>1.08E-06</v>
+        <v>0.00118</v>
       </c>
       <c r="E7">
-        <v>4.4E-05</v>
+        <v>0.0482</v>
       </c>
       <c r="F7">
-        <v>2.88E-06</v>
+        <v>0.00315</v>
       </c>
       <c r="G7">
-        <v>2.17E-07</v>
+        <v>0.000238</v>
       </c>
       <c r="H7">
-        <v>0.000431</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1309,22 +1309,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2.21E-08</v>
+        <v>2.42E-05</v>
       </c>
       <c r="D8">
-        <v>4.19E-07</v>
+        <v>0.00046</v>
       </c>
       <c r="E8">
-        <v>1.71E-05</v>
+        <v>0.0187</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.16E-06</v>
+        <v>0.00127</v>
       </c>
       <c r="H8">
-        <v>0.000167</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1335,22 +1335,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3.18E-11</v>
+        <v>3.48E-08</v>
       </c>
       <c r="D9">
-        <v>6.140000000000001E-10</v>
+        <v>6.72E-07</v>
       </c>
       <c r="E9">
-        <v>2.5E-08</v>
+        <v>2.74E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9.079999999999999E-09</v>
+        <v>9.95E-06</v>
       </c>
       <c r="H9">
-        <v>2.45E-07</v>
+        <v>0.000268</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1361,22 +1361,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2.06E-16</v>
+        <v>2.25E-13</v>
       </c>
       <c r="D10">
-        <v>3.67E-15</v>
+        <v>4.02E-12</v>
       </c>
       <c r="E10">
-        <v>1.5E-13</v>
+        <v>1.64E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.23E-15</v>
+        <v>2.44E-12</v>
       </c>
       <c r="H10">
-        <v>1.47E-12</v>
+        <v>1.61E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1387,22 +1387,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.92E-15</v>
+        <v>3.2E-12</v>
       </c>
       <c r="D11">
-        <v>9.19E-14</v>
+        <v>1.01E-10</v>
       </c>
       <c r="E11">
-        <v>3.75E-12</v>
+        <v>4.11E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8.92E-13</v>
+        <v>9.77E-10</v>
       </c>
       <c r="H11">
-        <v>3.67E-11</v>
+        <v>4.02E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1413,22 +1413,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.41E-14</v>
+        <v>1.55E-11</v>
       </c>
       <c r="D12">
-        <v>7.660000000000001E-15</v>
+        <v>8.4E-12</v>
       </c>
       <c r="E12">
-        <v>3.13E-13</v>
+        <v>3.43E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8.35E-16</v>
+        <v>9.15E-13</v>
       </c>
       <c r="H12">
-        <v>3.06E-12</v>
+        <v>3.35E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1439,22 +1439,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>5.81E-11</v>
+        <v>6.369999999999999E-08</v>
       </c>
       <c r="D13">
-        <v>1.68E-09</v>
+        <v>1.84E-06</v>
       </c>
       <c r="E13">
-        <v>6.860000000000001E-08</v>
+        <v>7.51E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.13E-10</v>
+        <v>1.24E-07</v>
       </c>
       <c r="H13">
-        <v>6.71E-07</v>
+        <v>0.000735</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1465,22 +1465,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.5E-09</v>
+        <v>1.64E-06</v>
       </c>
       <c r="D14">
-        <v>3.23E-08</v>
+        <v>3.54E-05</v>
       </c>
       <c r="E14">
-        <v>1.32E-06</v>
+        <v>0.00144</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7.68E-09</v>
+        <v>8.420000000000001E-06</v>
       </c>
       <c r="H14">
-        <v>1.29E-05</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -1549,22 +1549,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2.3E-10</v>
+        <v>2.27E-07</v>
       </c>
       <c r="D4">
-        <v>1.18E-08</v>
+        <v>1.16E-05</v>
       </c>
       <c r="E4">
-        <v>4.83E-07</v>
+        <v>0.000478</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.46E-10</v>
+        <v>7.38E-07</v>
       </c>
       <c r="H4">
-        <v>2.34E-06</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1575,22 +1575,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.11E-08</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D5">
-        <v>6.39E-07</v>
+        <v>0.000632</v>
       </c>
       <c r="E5">
-        <v>2.62E-05</v>
+        <v>0.0259</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.45E-08</v>
+        <v>2.42E-05</v>
       </c>
       <c r="H5">
-        <v>0.000127</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1601,22 +1601,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.18E-10</v>
+        <v>1.17E-07</v>
       </c>
       <c r="D6">
-        <v>6.09E-09</v>
+        <v>6.02E-06</v>
       </c>
       <c r="E6">
-        <v>2.5E-07</v>
+        <v>0.000247</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.22E-10</v>
+        <v>5.16E-07</v>
       </c>
       <c r="H6">
-        <v>1.21E-06</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1627,22 +1627,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>4.09E-08</v>
+        <v>4.04E-05</v>
       </c>
       <c r="D7">
-        <v>2.28E-06</v>
+        <v>0.00225</v>
       </c>
       <c r="E7">
-        <v>9.35E-05</v>
+        <v>0.0924</v>
       </c>
       <c r="F7">
-        <v>3.47E-06</v>
+        <v>0.00343</v>
       </c>
       <c r="G7">
-        <v>2.16E-07</v>
+        <v>0.000213</v>
       </c>
       <c r="H7">
-        <v>0.000453</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1653,22 +1653,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2.21E-08</v>
+        <v>2.19E-05</v>
       </c>
       <c r="D8">
-        <v>8.86E-07</v>
+        <v>0.000876</v>
       </c>
       <c r="E8">
-        <v>3.63E-05</v>
+        <v>0.0359</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.15E-06</v>
+        <v>0.00114</v>
       </c>
       <c r="H8">
-        <v>0.000176</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1679,22 +1679,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3.18E-11</v>
+        <v>3.14E-08</v>
       </c>
       <c r="D9">
-        <v>1.3E-09</v>
+        <v>1.28E-06</v>
       </c>
       <c r="E9">
-        <v>5.32E-08</v>
+        <v>5.26E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9.020000000000001E-09</v>
+        <v>8.909999999999999E-06</v>
       </c>
       <c r="H9">
-        <v>2.58E-07</v>
+        <v>0.000255</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1705,22 +1705,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2.06E-16</v>
+        <v>2.03E-13</v>
       </c>
       <c r="D10">
-        <v>7.76E-15</v>
+        <v>7.669999999999999E-12</v>
       </c>
       <c r="E10">
-        <v>3.18E-13</v>
+        <v>3.15E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.21E-15</v>
+        <v>2.19E-12</v>
       </c>
       <c r="H10">
-        <v>1.54E-12</v>
+        <v>1.53E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1731,22 +1731,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.92E-15</v>
+        <v>2.89E-12</v>
       </c>
       <c r="D11">
-        <v>1.94E-13</v>
+        <v>1.92E-10</v>
       </c>
       <c r="E11">
-        <v>7.969999999999999E-12</v>
+        <v>7.88E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8.85E-13</v>
+        <v>8.75E-10</v>
       </c>
       <c r="H11">
-        <v>3.86E-11</v>
+        <v>3.82E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1757,22 +1757,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.41E-14</v>
+        <v>1.4E-11</v>
       </c>
       <c r="D12">
-        <v>1.62E-14</v>
+        <v>1.6E-11</v>
       </c>
       <c r="E12">
-        <v>6.64E-13</v>
+        <v>6.57E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8.29E-16</v>
+        <v>8.2E-13</v>
       </c>
       <c r="H12">
-        <v>3.22E-12</v>
+        <v>3.19E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1783,22 +1783,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>5.82E-11</v>
+        <v>5.75E-08</v>
       </c>
       <c r="D13">
-        <v>3.55E-09</v>
+        <v>3.51E-06</v>
       </c>
       <c r="E13">
-        <v>1.46E-07</v>
+        <v>0.000144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.12E-10</v>
+        <v>1.11E-07</v>
       </c>
       <c r="H13">
-        <v>7.06E-07</v>
+        <v>0.0006980000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1809,22 +1809,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.5E-09</v>
+        <v>1.48E-06</v>
       </c>
       <c r="D14">
-        <v>6.82E-08</v>
+        <v>6.75E-05</v>
       </c>
       <c r="E14">
-        <v>2.8E-06</v>
+        <v>0.00277</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7.62E-09</v>
+        <v>7.54E-06</v>
       </c>
       <c r="H14">
-        <v>1.36E-05</v>
+        <v>0.0134</v>
       </c>
     </row>
   </sheetData>
@@ -1893,22 +1893,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1.16E-10</v>
+        <v>9.53E-08</v>
       </c>
       <c r="D4">
-        <v>4.72E-09</v>
+        <v>3.88E-06</v>
       </c>
       <c r="E4">
-        <v>1.61E-07</v>
+        <v>0.000132</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.73E-10</v>
+        <v>3.88E-07</v>
       </c>
       <c r="H4">
-        <v>2.57E-06</v>
+        <v>0.00211</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1919,22 +1919,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>5.6E-09</v>
+        <v>4.6E-06</v>
       </c>
       <c r="D5">
-        <v>2.56E-07</v>
+        <v>0.00021</v>
       </c>
       <c r="E5">
-        <v>8.729999999999999E-06</v>
+        <v>0.00717</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.55E-08</v>
+        <v>1.27E-05</v>
       </c>
       <c r="H5">
-        <v>0.00014</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1945,22 +1945,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5.95E-11</v>
+        <v>4.89E-08</v>
       </c>
       <c r="D6">
-        <v>2.44E-09</v>
+        <v>2E-06</v>
       </c>
       <c r="E6">
-        <v>8.32E-08</v>
+        <v>6.830000000000001E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.31E-10</v>
+        <v>2.72E-07</v>
       </c>
       <c r="H6">
-        <v>1.33E-06</v>
+        <v>0.00109</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1971,22 +1971,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>2.06E-08</v>
+        <v>1.69E-05</v>
       </c>
       <c r="D7">
-        <v>9.13E-07</v>
+        <v>0.00075</v>
       </c>
       <c r="E7">
-        <v>3.11E-05</v>
+        <v>0.0255</v>
       </c>
       <c r="F7">
-        <v>4.76E-07</v>
+        <v>0.000391</v>
       </c>
       <c r="G7">
-        <v>1.37E-07</v>
+        <v>0.000112</v>
       </c>
       <c r="H7">
-        <v>0.000498</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1997,22 +1997,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1.12E-08</v>
+        <v>9.16E-06</v>
       </c>
       <c r="D8">
-        <v>3.55E-07</v>
+        <v>0.000291</v>
       </c>
       <c r="E8">
-        <v>1.21E-05</v>
+        <v>0.00993</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>7.32E-07</v>
+        <v>0.000601</v>
       </c>
       <c r="H8">
-        <v>0.000193</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2023,22 +2023,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.61E-11</v>
+        <v>1.32E-08</v>
       </c>
       <c r="D9">
-        <v>5.19E-10</v>
+        <v>4.26E-07</v>
       </c>
       <c r="E9">
-        <v>1.77E-08</v>
+        <v>1.45E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.72E-09</v>
+        <v>4.69E-06</v>
       </c>
       <c r="H9">
-        <v>2.83E-07</v>
+        <v>0.000232</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2049,22 +2049,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1.04E-16</v>
+        <v>8.53E-14</v>
       </c>
       <c r="D10">
-        <v>3.11E-15</v>
+        <v>2.55E-12</v>
       </c>
       <c r="E10">
-        <v>1.06E-13</v>
+        <v>8.7E-11</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.4E-15</v>
+        <v>1.15E-12</v>
       </c>
       <c r="H10">
-        <v>1.69E-12</v>
+        <v>1.39E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2075,22 +2075,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.48E-15</v>
+        <v>1.21E-12</v>
       </c>
       <c r="D11">
-        <v>7.779999999999999E-14</v>
+        <v>6.389999999999999E-11</v>
       </c>
       <c r="E11">
-        <v>2.65E-12</v>
+        <v>2.18E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.61E-13</v>
+        <v>4.61E-10</v>
       </c>
       <c r="H11">
-        <v>4.24E-11</v>
+        <v>3.48E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2101,22 +2101,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>7.14E-15</v>
+        <v>5.86E-12</v>
       </c>
       <c r="D12">
-        <v>6.49E-15</v>
+        <v>5.33E-12</v>
       </c>
       <c r="E12">
-        <v>2.21E-13</v>
+        <v>1.82E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.26E-16</v>
+        <v>4.32E-13</v>
       </c>
       <c r="H12">
-        <v>3.54E-12</v>
+        <v>2.9E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2127,22 +2127,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.94E-11</v>
+        <v>2.41E-08</v>
       </c>
       <c r="D13">
-        <v>1.42E-09</v>
+        <v>1.17E-06</v>
       </c>
       <c r="E13">
-        <v>4.85E-08</v>
+        <v>3.98E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7.12E-11</v>
+        <v>5.85E-08</v>
       </c>
       <c r="H13">
-        <v>7.75E-07</v>
+        <v>0.000636</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2153,22 +2153,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>7.58E-10</v>
+        <v>6.22E-07</v>
       </c>
       <c r="D14">
-        <v>2.73E-08</v>
+        <v>2.24E-05</v>
       </c>
       <c r="E14">
-        <v>9.32E-07</v>
+        <v>0.0007649999999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.84E-09</v>
+        <v>3.97E-06</v>
       </c>
       <c r="H14">
-        <v>1.49E-05</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -2237,22 +2237,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1.01E-10</v>
+        <v>8.56E-08</v>
       </c>
       <c r="D4">
-        <v>1.09E-08</v>
+        <v>9.2E-06</v>
       </c>
       <c r="E4">
-        <v>3.49E-07</v>
+        <v>0.000295</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.01E-10</v>
+        <v>3.39E-07</v>
       </c>
       <c r="H4">
-        <v>2.54E-06</v>
+        <v>0.00214</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2263,22 +2263,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4.89E-09</v>
+        <v>4.13E-06</v>
       </c>
       <c r="D5">
-        <v>5.91E-07</v>
+        <v>0.000499</v>
       </c>
       <c r="E5">
-        <v>1.9E-05</v>
+        <v>0.016</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.32E-08</v>
+        <v>1.11E-05</v>
       </c>
       <c r="H5">
-        <v>0.000138</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2289,22 +2289,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5.2E-11</v>
+        <v>4.39E-08</v>
       </c>
       <c r="D6">
-        <v>5.63E-09</v>
+        <v>4.76E-06</v>
       </c>
       <c r="E6">
-        <v>1.81E-07</v>
+        <v>0.000153</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.81E-10</v>
+        <v>2.37E-07</v>
       </c>
       <c r="H6">
-        <v>1.31E-06</v>
+        <v>0.00111</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2315,22 +2315,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.8E-08</v>
+        <v>1.52E-05</v>
       </c>
       <c r="D7">
-        <v>2.11E-06</v>
+        <v>0.00178</v>
       </c>
       <c r="E7">
-        <v>6.76E-05</v>
+        <v>0.0571</v>
       </c>
       <c r="F7">
-        <v>6.68E-07</v>
+        <v>0.000564</v>
       </c>
       <c r="G7">
-        <v>1.16E-07</v>
+        <v>9.81E-05</v>
       </c>
       <c r="H7">
-        <v>0.000491</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2341,22 +2341,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9.75E-09</v>
+        <v>8.230000000000001E-06</v>
       </c>
       <c r="D8">
-        <v>8.19E-07</v>
+        <v>0.000692</v>
       </c>
       <c r="E8">
-        <v>2.63E-05</v>
+        <v>0.0222</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.21E-07</v>
+        <v>0.0005240000000000001</v>
       </c>
       <c r="H8">
-        <v>0.000191</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2367,22 +2367,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.4E-11</v>
+        <v>1.18E-08</v>
       </c>
       <c r="D9">
-        <v>1.2E-09</v>
+        <v>1.01E-06</v>
       </c>
       <c r="E9">
-        <v>3.85E-08</v>
+        <v>3.25E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.85E-09</v>
+        <v>4.1E-06</v>
       </c>
       <c r="H9">
-        <v>2.79E-07</v>
+        <v>0.000236</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2393,22 +2393,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>9.07E-17</v>
+        <v>7.66E-14</v>
       </c>
       <c r="D10">
-        <v>7.169999999999999E-15</v>
+        <v>6.06E-12</v>
       </c>
       <c r="E10">
-        <v>2.3E-13</v>
+        <v>1.94E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.19E-15</v>
+        <v>1.01E-12</v>
       </c>
       <c r="H10">
-        <v>1.67E-12</v>
+        <v>1.41E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2419,22 +2419,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.29E-15</v>
+        <v>1.09E-12</v>
       </c>
       <c r="D11">
-        <v>1.8E-13</v>
+        <v>1.52E-10</v>
       </c>
       <c r="E11">
-        <v>5.76E-12</v>
+        <v>4.87E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.76E-13</v>
+        <v>4.02E-10</v>
       </c>
       <c r="H11">
-        <v>4.18E-11</v>
+        <v>3.53E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2445,22 +2445,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>6.24E-15</v>
+        <v>5.27E-12</v>
       </c>
       <c r="D12">
-        <v>1.5E-14</v>
+        <v>1.26E-11</v>
       </c>
       <c r="E12">
-        <v>4.8E-13</v>
+        <v>4.06E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.46E-16</v>
+        <v>3.77E-13</v>
       </c>
       <c r="H12">
-        <v>3.49E-12</v>
+        <v>2.94E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2471,22 +2471,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.56E-11</v>
+        <v>2.17E-08</v>
       </c>
       <c r="D13">
-        <v>3.28E-09</v>
+        <v>2.77E-06</v>
       </c>
       <c r="E13">
-        <v>1.05E-07</v>
+        <v>8.890000000000001E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.040000000000001E-11</v>
+        <v>5.1E-08</v>
       </c>
       <c r="H13">
-        <v>7.64E-07</v>
+        <v>0.000645</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2497,22 +2497,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>6.62E-10</v>
+        <v>5.59E-07</v>
       </c>
       <c r="D14">
-        <v>6.31E-08</v>
+        <v>5.33E-05</v>
       </c>
       <c r="E14">
-        <v>2.02E-06</v>
+        <v>0.00171</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.1E-09</v>
+        <v>3.47E-06</v>
       </c>
       <c r="H14">
-        <v>1.47E-05</v>
+        <v>0.0124</v>
       </c>
     </row>
   </sheetData>
@@ -2581,22 +2581,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9.78E-11</v>
+        <v>8.09E-08</v>
       </c>
       <c r="D4">
-        <v>4.7E-09</v>
+        <v>3.89E-06</v>
       </c>
       <c r="E4">
-        <v>1.78E-07</v>
+        <v>0.000148</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.82E-10</v>
+        <v>3.16E-07</v>
       </c>
       <c r="H4">
-        <v>2.56E-06</v>
+        <v>0.00212</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2607,22 +2607,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4.72E-09</v>
+        <v>3.91E-06</v>
       </c>
       <c r="D5">
-        <v>2.55E-07</v>
+        <v>0.000211</v>
       </c>
       <c r="E5">
-        <v>9.68E-06</v>
+        <v>0.00801</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.25E-08</v>
+        <v>1.04E-05</v>
       </c>
       <c r="H5">
-        <v>0.000139</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2633,22 +2633,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5.02E-11</v>
+        <v>4.15E-08</v>
       </c>
       <c r="D6">
-        <v>2.43E-09</v>
+        <v>2.01E-06</v>
       </c>
       <c r="E6">
-        <v>9.23E-08</v>
+        <v>7.64E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.68E-10</v>
+        <v>2.21E-07</v>
       </c>
       <c r="H6">
-        <v>1.32E-06</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2659,22 +2659,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.74E-08</v>
+        <v>1.44E-05</v>
       </c>
       <c r="D7">
-        <v>9.1E-07</v>
+        <v>0.000753</v>
       </c>
       <c r="E7">
-        <v>3.45E-05</v>
+        <v>0.0286</v>
       </c>
       <c r="F7">
-        <v>8.88E-07</v>
+        <v>0.000735</v>
       </c>
       <c r="G7">
-        <v>1.11E-07</v>
+        <v>9.15E-05</v>
       </c>
       <c r="H7">
-        <v>0.000496</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2685,22 +2685,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9.4E-09</v>
+        <v>7.78E-06</v>
       </c>
       <c r="D8">
-        <v>3.54E-07</v>
+        <v>0.000293</v>
       </c>
       <c r="E8">
-        <v>1.34E-05</v>
+        <v>0.0111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.91E-07</v>
+        <v>0.000489</v>
       </c>
       <c r="H8">
-        <v>0.000193</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2711,22 +2711,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.35E-11</v>
+        <v>1.12E-08</v>
       </c>
       <c r="D9">
-        <v>5.17E-10</v>
+        <v>4.28E-07</v>
       </c>
       <c r="E9">
-        <v>1.96E-08</v>
+        <v>1.62E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.62E-09</v>
+        <v>3.82E-06</v>
       </c>
       <c r="H9">
-        <v>2.82E-07</v>
+        <v>0.000233</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2737,22 +2737,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8.75E-17</v>
+        <v>7.24E-14</v>
       </c>
       <c r="D10">
-        <v>3.1E-15</v>
+        <v>2.56E-12</v>
       </c>
       <c r="E10">
-        <v>1.17E-13</v>
+        <v>9.72E-11</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.13E-15</v>
+        <v>9.38E-13</v>
       </c>
       <c r="H10">
-        <v>1.69E-12</v>
+        <v>1.4E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2763,22 +2763,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.24E-15</v>
+        <v>1.03E-12</v>
       </c>
       <c r="D11">
-        <v>7.75E-14</v>
+        <v>6.42E-11</v>
       </c>
       <c r="E11">
-        <v>2.94E-12</v>
+        <v>2.43E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.53E-13</v>
+        <v>3.75E-10</v>
       </c>
       <c r="H11">
-        <v>4.22E-11</v>
+        <v>3.5E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2789,22 +2789,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>6.02E-15</v>
+        <v>4.98E-12</v>
       </c>
       <c r="D12">
-        <v>6.46E-15</v>
+        <v>5.35E-12</v>
       </c>
       <c r="E12">
-        <v>2.45E-13</v>
+        <v>2.03E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.25E-16</v>
+        <v>3.52E-13</v>
       </c>
       <c r="H12">
-        <v>3.52E-12</v>
+        <v>2.91E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2815,22 +2815,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.47E-11</v>
+        <v>2.05E-08</v>
       </c>
       <c r="D13">
-        <v>1.42E-09</v>
+        <v>1.17E-06</v>
       </c>
       <c r="E13">
-        <v>5.38E-08</v>
+        <v>4.45E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.75E-11</v>
+        <v>4.76E-08</v>
       </c>
       <c r="H13">
-        <v>7.72E-07</v>
+        <v>0.000639</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2841,22 +2841,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>6.39E-10</v>
+        <v>5.29E-07</v>
       </c>
       <c r="D14">
-        <v>2.72E-08</v>
+        <v>2.25E-05</v>
       </c>
       <c r="E14">
-        <v>1.03E-06</v>
+        <v>0.000855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.91E-09</v>
+        <v>3.23E-06</v>
       </c>
       <c r="H14">
-        <v>1.48E-05</v>
+        <v>0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -2925,22 +2925,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9.62E-11</v>
+        <v>7.7E-08</v>
       </c>
       <c r="D4">
-        <v>1.13E-08</v>
+        <v>9.06E-06</v>
       </c>
       <c r="E4">
-        <v>4.19E-07</v>
+        <v>0.000336</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.72E-10</v>
+        <v>2.98E-07</v>
       </c>
       <c r="H4">
-        <v>2.6E-06</v>
+        <v>0.00209</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2951,22 +2951,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4.64E-09</v>
+        <v>3.72E-06</v>
       </c>
       <c r="D5">
-        <v>6.14E-07</v>
+        <v>0.000492</v>
       </c>
       <c r="E5">
-        <v>2.28E-05</v>
+        <v>0.0182</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.22E-08</v>
+        <v>9.76E-06</v>
       </c>
       <c r="H5">
-        <v>0.000141</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2977,22 +2977,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>4.93E-11</v>
+        <v>3.95E-08</v>
       </c>
       <c r="D6">
-        <v>5.85E-09</v>
+        <v>4.68E-06</v>
       </c>
       <c r="E6">
-        <v>2.17E-07</v>
+        <v>0.000174</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.6E-10</v>
+        <v>2.08E-07</v>
       </c>
       <c r="H6">
-        <v>1.35E-06</v>
+        <v>0.00108</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3003,22 +3003,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.71E-08</v>
+        <v>1.37E-05</v>
       </c>
       <c r="D7">
-        <v>2.19E-06</v>
+        <v>0.00175</v>
       </c>
       <c r="E7">
-        <v>8.110000000000001E-05</v>
+        <v>0.0649</v>
       </c>
       <c r="F7">
-        <v>1.19E-06</v>
+        <v>0.000953</v>
       </c>
       <c r="G7">
-        <v>1.08E-07</v>
+        <v>8.610000000000001E-05</v>
       </c>
       <c r="H7">
-        <v>0.000504</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3029,22 +3029,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9.25E-09</v>
+        <v>7.41E-06</v>
       </c>
       <c r="D8">
-        <v>8.51E-07</v>
+        <v>0.000681</v>
       </c>
       <c r="E8">
-        <v>3.15E-05</v>
+        <v>0.0252</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.75E-07</v>
+        <v>0.00046</v>
       </c>
       <c r="H8">
-        <v>0.000196</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3055,22 +3055,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.33E-11</v>
+        <v>1.07E-08</v>
       </c>
       <c r="D9">
-        <v>1.24E-09</v>
+        <v>9.969999999999999E-07</v>
       </c>
       <c r="E9">
-        <v>4.61E-08</v>
+        <v>3.69E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.49E-09</v>
+        <v>3.6E-06</v>
       </c>
       <c r="H9">
-        <v>2.87E-07</v>
+        <v>0.000229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3081,22 +3081,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8.61E-17</v>
+        <v>6.89E-14</v>
       </c>
       <c r="D10">
-        <v>7.450000000000001E-15</v>
+        <v>5.96E-12</v>
       </c>
       <c r="E10">
-        <v>2.76E-13</v>
+        <v>2.21E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.1E-15</v>
+        <v>8.82E-13</v>
       </c>
       <c r="H10">
-        <v>1.72E-12</v>
+        <v>1.37E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3107,22 +3107,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.22E-15</v>
+        <v>9.79E-13</v>
       </c>
       <c r="D11">
-        <v>1.87E-13</v>
+        <v>1.49E-10</v>
       </c>
       <c r="E11">
-        <v>6.91E-12</v>
+        <v>5.53E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.41E-13</v>
+        <v>3.53E-10</v>
       </c>
       <c r="H11">
-        <v>4.29E-11</v>
+        <v>3.44E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3133,22 +3133,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>5.92E-15</v>
+        <v>4.74E-12</v>
       </c>
       <c r="D12">
-        <v>1.55E-14</v>
+        <v>1.24E-11</v>
       </c>
       <c r="E12">
-        <v>5.76E-13</v>
+        <v>4.61E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.13E-16</v>
+        <v>3.31E-13</v>
       </c>
       <c r="H12">
-        <v>3.58E-12</v>
+        <v>2.87E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3159,22 +3159,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.43E-11</v>
+        <v>1.95E-08</v>
       </c>
       <c r="D13">
-        <v>3.41E-09</v>
+        <v>2.73E-06</v>
       </c>
       <c r="E13">
-        <v>1.26E-07</v>
+        <v>0.000101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.59E-11</v>
+        <v>4.48E-08</v>
       </c>
       <c r="H13">
-        <v>7.85E-07</v>
+        <v>0.000628</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3185,22 +3185,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>6.28E-10</v>
+        <v>5.03E-07</v>
       </c>
       <c r="D14">
-        <v>6.55E-08</v>
+        <v>5.25E-05</v>
       </c>
       <c r="E14">
-        <v>2.43E-06</v>
+        <v>0.00194</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.8E-09</v>
+        <v>3.04E-06</v>
       </c>
       <c r="H14">
-        <v>1.51E-05</v>
+        <v>0.0121</v>
       </c>
     </row>
   </sheetData>
@@ -3269,22 +3269,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1.02E-10</v>
+        <v>7.919999999999999E-08</v>
       </c>
       <c r="D4">
-        <v>5.12E-09</v>
+        <v>3.96E-06</v>
       </c>
       <c r="E4">
-        <v>2.14E-07</v>
+        <v>0.000166</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.01E-10</v>
+        <v>3.1E-07</v>
       </c>
       <c r="H4">
-        <v>2.65E-06</v>
+        <v>0.00205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3295,22 +3295,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4.94E-09</v>
+        <v>3.83E-06</v>
       </c>
       <c r="D5">
-        <v>2.78E-07</v>
+        <v>0.000215</v>
       </c>
       <c r="E5">
-        <v>1.16E-05</v>
+        <v>0.00899</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.31E-08</v>
+        <v>1.02E-05</v>
       </c>
       <c r="H5">
-        <v>0.000144</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3321,22 +3321,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5.25E-11</v>
+        <v>4.06E-08</v>
       </c>
       <c r="D6">
-        <v>2.65E-09</v>
+        <v>2.05E-06</v>
       </c>
       <c r="E6">
-        <v>1.11E-07</v>
+        <v>8.57E-05</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.81E-10</v>
+        <v>2.17E-07</v>
       </c>
       <c r="H6">
-        <v>1.37E-06</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3347,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.82E-08</v>
+        <v>1.41E-05</v>
       </c>
       <c r="D7">
-        <v>9.909999999999999E-07</v>
+        <v>0.000767</v>
       </c>
       <c r="E7">
-        <v>4.14E-05</v>
+        <v>0.032</v>
       </c>
       <c r="F7">
-        <v>1.22E-06</v>
+        <v>0.000947</v>
       </c>
       <c r="G7">
-        <v>1.16E-07</v>
+        <v>8.97E-05</v>
       </c>
       <c r="H7">
-        <v>0.000512</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3373,22 +3373,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9.850000000000001E-09</v>
+        <v>7.62E-06</v>
       </c>
       <c r="D8">
-        <v>3.85E-07</v>
+        <v>0.000298</v>
       </c>
       <c r="E8">
-        <v>1.61E-05</v>
+        <v>0.0125</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.2E-07</v>
+        <v>0.000479</v>
       </c>
       <c r="H8">
-        <v>0.000199</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3399,22 +3399,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.42E-11</v>
+        <v>1.1E-08</v>
       </c>
       <c r="D9">
-        <v>5.64E-10</v>
+        <v>4.36E-07</v>
       </c>
       <c r="E9">
-        <v>2.36E-08</v>
+        <v>1.82E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.84E-09</v>
+        <v>3.75E-06</v>
       </c>
       <c r="H9">
-        <v>2.92E-07</v>
+        <v>0.000226</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3425,22 +3425,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>9.16E-17</v>
+        <v>7.090000000000001E-14</v>
       </c>
       <c r="D10">
-        <v>3.37E-15</v>
+        <v>2.61E-12</v>
       </c>
       <c r="E10">
-        <v>1.41E-13</v>
+        <v>1.09E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.19E-15</v>
+        <v>9.19E-13</v>
       </c>
       <c r="H10">
-        <v>1.74E-12</v>
+        <v>1.35E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3451,22 +3451,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.3E-15</v>
+        <v>1.01E-12</v>
       </c>
       <c r="D11">
-        <v>8.450000000000001E-14</v>
+        <v>6.54E-11</v>
       </c>
       <c r="E11">
-        <v>3.53E-12</v>
+        <v>2.73E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.75E-13</v>
+        <v>3.68E-10</v>
       </c>
       <c r="H11">
-        <v>4.37E-11</v>
+        <v>3.38E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3477,22 +3477,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>6.3E-15</v>
+        <v>4.88E-12</v>
       </c>
       <c r="D12">
-        <v>7.04E-15</v>
+        <v>5.45E-12</v>
       </c>
       <c r="E12">
-        <v>2.94E-13</v>
+        <v>2.28E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.45E-16</v>
+        <v>3.45E-13</v>
       </c>
       <c r="H12">
-        <v>3.64E-12</v>
+        <v>2.82E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3503,22 +3503,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.59E-11</v>
+        <v>2E-08</v>
       </c>
       <c r="D13">
-        <v>1.54E-09</v>
+        <v>1.19E-06</v>
       </c>
       <c r="E13">
-        <v>6.45E-08</v>
+        <v>4.99E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.03E-11</v>
+        <v>4.67E-08</v>
       </c>
       <c r="H13">
-        <v>7.98E-07</v>
+        <v>0.000618</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3529,22 +3529,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>6.69E-10</v>
+        <v>5.18E-07</v>
       </c>
       <c r="D14">
-        <v>2.97E-08</v>
+        <v>2.3E-05</v>
       </c>
       <c r="E14">
-        <v>1.24E-06</v>
+        <v>0.00096</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.09E-09</v>
+        <v>3.17E-06</v>
       </c>
       <c r="H14">
-        <v>1.53E-05</v>
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -3613,22 +3613,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9.67E-11</v>
+        <v>7.38E-08</v>
       </c>
       <c r="D4">
-        <v>1.18E-08</v>
+        <v>8.99E-06</v>
       </c>
       <c r="E4">
-        <v>4.95E-07</v>
+        <v>0.000378</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.72E-10</v>
+        <v>2.84E-07</v>
       </c>
       <c r="H4">
-        <v>2.67E-06</v>
+        <v>0.00204</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3639,22 +3639,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>4.67E-09</v>
+        <v>3.56E-06</v>
       </c>
       <c r="D5">
-        <v>6.4E-07</v>
+        <v>0.000488</v>
       </c>
       <c r="E5">
-        <v>2.69E-05</v>
+        <v>0.0205</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.22E-08</v>
+        <v>9.310000000000001E-06</v>
       </c>
       <c r="H5">
-        <v>0.000145</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3665,22 +3665,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>4.96E-11</v>
+        <v>3.78E-08</v>
       </c>
       <c r="D6">
-        <v>6.1E-09</v>
+        <v>4.65E-06</v>
       </c>
       <c r="E6">
-        <v>2.56E-07</v>
+        <v>0.000195</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.6E-10</v>
+        <v>1.99E-07</v>
       </c>
       <c r="H6">
-        <v>1.38E-06</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3691,22 +3691,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1.72E-08</v>
+        <v>1.31E-05</v>
       </c>
       <c r="D7">
-        <v>2.28E-06</v>
+        <v>0.00174</v>
       </c>
       <c r="E7">
-        <v>9.57E-05</v>
+        <v>0.073</v>
       </c>
       <c r="F7">
-        <v>1.15E-06</v>
+        <v>0.000877</v>
       </c>
       <c r="G7">
-        <v>1.08E-07</v>
+        <v>8.21E-05</v>
       </c>
       <c r="H7">
-        <v>0.000516</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3717,22 +3717,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9.300000000000001E-09</v>
+        <v>7.1E-06</v>
       </c>
       <c r="D8">
-        <v>8.86E-07</v>
+        <v>0.000676</v>
       </c>
       <c r="E8">
-        <v>3.72E-05</v>
+        <v>0.0284</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5.75E-07</v>
+        <v>0.000439</v>
       </c>
       <c r="H8">
-        <v>0.000201</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3743,22 +3743,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.34E-11</v>
+        <v>1.02E-08</v>
       </c>
       <c r="D9">
-        <v>1.3E-09</v>
+        <v>9.900000000000001E-07</v>
       </c>
       <c r="E9">
-        <v>5.45E-08</v>
+        <v>4.15E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.5E-09</v>
+        <v>3.43E-06</v>
       </c>
       <c r="H9">
-        <v>2.94E-07</v>
+        <v>0.000224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3769,22 +3769,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8.65E-17</v>
+        <v>6.6E-14</v>
       </c>
       <c r="D10">
-        <v>7.76E-15</v>
+        <v>5.92E-12</v>
       </c>
       <c r="E10">
-        <v>3.26E-13</v>
+        <v>2.49E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.1E-15</v>
+        <v>8.41E-13</v>
       </c>
       <c r="H10">
-        <v>1.76E-12</v>
+        <v>1.34E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3795,22 +3795,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1.23E-15</v>
+        <v>9.38E-13</v>
       </c>
       <c r="D11">
-        <v>1.94E-13</v>
+        <v>1.48E-10</v>
       </c>
       <c r="E11">
-        <v>8.160000000000001E-12</v>
+        <v>6.23E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.41E-13</v>
+        <v>3.37E-10</v>
       </c>
       <c r="H11">
-        <v>4.4E-11</v>
+        <v>3.36E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3821,22 +3821,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>5.95E-15</v>
+        <v>4.54E-12</v>
       </c>
       <c r="D12">
-        <v>1.62E-14</v>
+        <v>1.24E-11</v>
       </c>
       <c r="E12">
-        <v>6.8E-13</v>
+        <v>5.19E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.13E-16</v>
+        <v>3.15E-13</v>
       </c>
       <c r="H12">
-        <v>3.67E-12</v>
+        <v>2.8E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3847,22 +3847,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>2.45E-11</v>
+        <v>1.87E-08</v>
       </c>
       <c r="D13">
-        <v>3.55E-09</v>
+        <v>2.71E-06</v>
       </c>
       <c r="E13">
-        <v>1.49E-07</v>
+        <v>0.000114</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.6E-11</v>
+        <v>4.27E-08</v>
       </c>
       <c r="H13">
-        <v>8.040000000000001E-07</v>
+        <v>0.000613</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3873,22 +3873,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>6.32E-10</v>
+        <v>4.82E-07</v>
       </c>
       <c r="D14">
-        <v>6.83E-08</v>
+        <v>5.21E-05</v>
       </c>
       <c r="E14">
-        <v>2.87E-06</v>
+        <v>0.00219</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.8E-09</v>
+        <v>2.9E-06</v>
       </c>
       <c r="H14">
-        <v>1.55E-05</v>
+        <v>0.0118</v>
       </c>
     </row>
   </sheetData>
@@ -3960,19 +3960,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.23E-08</v>
+        <v>4.12E-05</v>
       </c>
       <c r="E4">
-        <v>9.939999999999999E-07</v>
+        <v>0.00127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.23E-09</v>
+        <v>5.38E-06</v>
       </c>
       <c r="H4">
-        <v>2.07E-06</v>
+        <v>0.00263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3986,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.76E-06</v>
+        <v>0.00224</v>
       </c>
       <c r="E5">
-        <v>5.39E-05</v>
+        <v>0.0687</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.39E-07</v>
+        <v>0.000177</v>
       </c>
       <c r="H5">
-        <v>0.000112</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4012,19 +4012,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.67E-08</v>
+        <v>2.13E-05</v>
       </c>
       <c r="E6">
-        <v>5.14E-07</v>
+        <v>0.000654</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.96E-09</v>
+        <v>3.77E-06</v>
       </c>
       <c r="H6">
-        <v>1.07E-06</v>
+        <v>0.00136</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4038,19 +4038,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.26E-06</v>
+        <v>0.00797</v>
       </c>
       <c r="E7">
-        <v>0.000192</v>
+        <v>0.245</v>
       </c>
       <c r="F7">
-        <v>4.01E-06</v>
+        <v>0.00511</v>
       </c>
       <c r="G7">
-        <v>1.22E-06</v>
+        <v>0.00156</v>
       </c>
       <c r="H7">
-        <v>0.000399</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.43E-06</v>
+        <v>0.0031</v>
       </c>
       <c r="E8">
-        <v>7.47E-05</v>
+        <v>0.0951</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.54E-06</v>
+        <v>0.008319999999999999</v>
       </c>
       <c r="H8">
-        <v>0.000155</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4090,19 +4090,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.56E-09</v>
+        <v>4.53E-06</v>
       </c>
       <c r="E9">
-        <v>1.09E-07</v>
+        <v>0.000139</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.11E-08</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="H9">
-        <v>2.27E-07</v>
+        <v>0.000289</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4116,19 +4116,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.13E-14</v>
+        <v>2.71E-11</v>
       </c>
       <c r="E10">
-        <v>6.54E-13</v>
+        <v>8.33E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.25E-14</v>
+        <v>1.6E-11</v>
       </c>
       <c r="H10">
-        <v>1.36E-12</v>
+        <v>1.73E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4142,19 +4142,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.33E-13</v>
+        <v>6.79E-10</v>
       </c>
       <c r="E11">
-        <v>1.64E-11</v>
+        <v>2.09E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.01E-12</v>
+        <v>6.39E-09</v>
       </c>
       <c r="H11">
-        <v>3.41E-11</v>
+        <v>4.34E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4168,19 +4168,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.45E-14</v>
+        <v>5.66E-11</v>
       </c>
       <c r="E12">
-        <v>1.37E-12</v>
+        <v>1.74E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.7E-15</v>
+        <v>5.98E-12</v>
       </c>
       <c r="H12">
-        <v>2.84E-12</v>
+        <v>3.61E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4194,19 +4194,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.75E-09</v>
+        <v>1.24E-05</v>
       </c>
       <c r="E13">
-        <v>2.99E-07</v>
+        <v>0.000381</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.36E-10</v>
+        <v>8.1E-07</v>
       </c>
       <c r="H13">
-        <v>6.22E-07</v>
+        <v>0.000792</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4220,19 +4220,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.87E-07</v>
+        <v>0.000239</v>
       </c>
       <c r="E14">
-        <v>5.76E-06</v>
+        <v>0.00733</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.32E-08</v>
+        <v>5.5E-05</v>
       </c>
       <c r="H14">
-        <v>1.2E-05</v>
+        <v>0.0152</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.14E-08</v>
+        <v>3.77E-05</v>
       </c>
       <c r="E4">
-        <v>1.03E-06</v>
+        <v>0.00124</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.45E-09</v>
+        <v>5.33E-06</v>
       </c>
       <c r="H4">
-        <v>2.13E-06</v>
+        <v>0.00255</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4330,19 +4330,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.71E-06</v>
+        <v>0.00204</v>
       </c>
       <c r="E5">
-        <v>5.6E-05</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.46E-07</v>
+        <v>0.000175</v>
       </c>
       <c r="H5">
-        <v>0.000116</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4356,19 +4356,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.63E-08</v>
+        <v>1.95E-05</v>
       </c>
       <c r="E6">
-        <v>5.34E-07</v>
+        <v>0.000639</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.11E-09</v>
+        <v>3.73E-06</v>
       </c>
       <c r="H6">
-        <v>1.1E-06</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4382,19 +4382,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.08E-06</v>
+        <v>0.00728</v>
       </c>
       <c r="E7">
-        <v>0.0002</v>
+        <v>0.239</v>
       </c>
       <c r="F7">
-        <v>5.63E-06</v>
+        <v>0.00675</v>
       </c>
       <c r="G7">
-        <v>1.29E-06</v>
+        <v>0.00154</v>
       </c>
       <c r="H7">
-        <v>0.000412</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4408,19 +4408,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.36E-06</v>
+        <v>0.00283</v>
       </c>
       <c r="E8">
-        <v>7.76E-05</v>
+        <v>0.0929</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.88E-06</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="H8">
-        <v>0.00016</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4434,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.46E-09</v>
+        <v>4.14E-06</v>
       </c>
       <c r="E9">
-        <v>1.14E-07</v>
+        <v>0.000136</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.38E-08</v>
+        <v>6.439999999999999E-05</v>
       </c>
       <c r="H9">
-        <v>2.34E-07</v>
+        <v>0.000281</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4460,19 +4460,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.07E-14</v>
+        <v>2.48E-11</v>
       </c>
       <c r="E10">
-        <v>6.79E-13</v>
+        <v>8.14E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.32E-14</v>
+        <v>1.58E-11</v>
       </c>
       <c r="H10">
-        <v>1.4E-12</v>
+        <v>1.68E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4486,19 +4486,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.18E-13</v>
+        <v>6.21E-10</v>
       </c>
       <c r="E11">
-        <v>1.7E-11</v>
+        <v>2.04E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.28E-12</v>
+        <v>6.32E-09</v>
       </c>
       <c r="H11">
-        <v>3.51E-11</v>
+        <v>4.21E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4512,19 +4512,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.32E-14</v>
+        <v>5.18E-11</v>
       </c>
       <c r="E12">
-        <v>1.42E-12</v>
+        <v>1.7E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.94E-15</v>
+        <v>5.92E-12</v>
       </c>
       <c r="H12">
-        <v>2.93E-12</v>
+        <v>3.51E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4538,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.47E-09</v>
+        <v>1.13E-05</v>
       </c>
       <c r="E13">
-        <v>3.11E-07</v>
+        <v>0.000372</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.69E-10</v>
+        <v>8.02E-07</v>
       </c>
       <c r="H13">
-        <v>6.42E-07</v>
+        <v>0.000769</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4564,19 +4564,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.82E-07</v>
+        <v>0.000218</v>
       </c>
       <c r="E14">
-        <v>5.98E-06</v>
+        <v>0.00716</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.55E-08</v>
+        <v>5.45E-05</v>
       </c>
       <c r="H14">
-        <v>1.23E-05</v>
+        <v>0.0148</v>
       </c>
     </row>
   </sheetData>
@@ -4648,19 +4648,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.99E-08</v>
+        <v>4.81E-05</v>
       </c>
       <c r="E4">
-        <v>1.29E-06</v>
+        <v>0.00155</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.74E-09</v>
+        <v>5.72E-06</v>
       </c>
       <c r="H4">
-        <v>2.12E-06</v>
+        <v>0.00256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4674,19 +4674,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.17E-06</v>
+        <v>0.00261</v>
       </c>
       <c r="E5">
-        <v>6.99E-05</v>
+        <v>0.0843</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.56E-07</v>
+        <v>0.000188</v>
       </c>
       <c r="H5">
-        <v>0.000115</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4700,19 +4700,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.06E-08</v>
+        <v>2.49E-05</v>
       </c>
       <c r="E6">
-        <v>6.66E-07</v>
+        <v>0.000803</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.32E-09</v>
+        <v>4E-06</v>
       </c>
       <c r="H6">
-        <v>1.1E-06</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4726,19 +4726,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.720000000000001E-06</v>
+        <v>0.009310000000000001</v>
       </c>
       <c r="E7">
-        <v>0.000249</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>6.97E-06</v>
+        <v>0.008410000000000001</v>
       </c>
       <c r="G7">
-        <v>1.37E-06</v>
+        <v>0.00165</v>
       </c>
       <c r="H7">
-        <v>0.00041</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4752,19 +4752,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3E-06</v>
+        <v>0.00362</v>
       </c>
       <c r="E8">
-        <v>9.679999999999999E-05</v>
+        <v>0.117</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>7.33E-06</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="H8">
-        <v>0.00016</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4778,19 +4778,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.39E-09</v>
+        <v>5.3E-06</v>
       </c>
       <c r="E9">
-        <v>1.42E-07</v>
+        <v>0.000171</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.73E-08</v>
+        <v>6.91E-05</v>
       </c>
       <c r="H9">
-        <v>2.34E-07</v>
+        <v>0.000282</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4804,19 +4804,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.63E-14</v>
+        <v>3.17E-11</v>
       </c>
       <c r="E10">
-        <v>8.48E-13</v>
+        <v>1.02E-09</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.41E-14</v>
+        <v>1.7E-11</v>
       </c>
       <c r="H10">
-        <v>1.4E-12</v>
+        <v>1.69E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4830,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.58E-13</v>
+        <v>7.94E-10</v>
       </c>
       <c r="E11">
-        <v>2.12E-11</v>
+        <v>2.56E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.63E-12</v>
+        <v>6.78E-09</v>
       </c>
       <c r="H11">
-        <v>3.5E-11</v>
+        <v>4.22E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4856,19 +4856,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.49E-14</v>
+        <v>6.62E-11</v>
       </c>
       <c r="E12">
-        <v>1.77E-12</v>
+        <v>2.13E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.27E-15</v>
+        <v>6.36E-12</v>
       </c>
       <c r="H12">
-        <v>2.92E-12</v>
+        <v>3.52E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4882,19 +4882,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.2E-08</v>
+        <v>1.45E-05</v>
       </c>
       <c r="E13">
-        <v>3.88E-07</v>
+        <v>0.000468</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7.14E-10</v>
+        <v>8.6E-07</v>
       </c>
       <c r="H13">
-        <v>6.4E-07</v>
+        <v>0.000771</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4908,19 +4908,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.31E-07</v>
+        <v>0.000279</v>
       </c>
       <c r="E14">
-        <v>7.46E-06</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.85E-08</v>
+        <v>5.84E-05</v>
       </c>
       <c r="H14">
-        <v>1.23E-05</v>
+        <v>0.0148</v>
       </c>
     </row>
   </sheetData>
@@ -4992,19 +4992,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.72E-08</v>
+        <v>4.1E-05</v>
       </c>
       <c r="E4">
-        <v>1.24E-06</v>
+        <v>0.00137</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.62E-09</v>
+        <v>5.1E-06</v>
       </c>
       <c r="H4">
-        <v>2.22E-06</v>
+        <v>0.00245</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5018,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.02E-06</v>
+        <v>0.00223</v>
       </c>
       <c r="E5">
-        <v>6.71E-05</v>
+        <v>0.0742</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.52E-07</v>
+        <v>0.000167</v>
       </c>
       <c r="H5">
-        <v>0.00012</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5044,19 +5044,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.92E-08</v>
+        <v>2.12E-05</v>
       </c>
       <c r="E6">
-        <v>6.4E-07</v>
+        <v>0.0007069999999999999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.23E-09</v>
+        <v>3.57E-06</v>
       </c>
       <c r="H6">
-        <v>1.15E-06</v>
+        <v>0.00127</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5070,19 +5070,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.19E-06</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="E7">
-        <v>0.000239</v>
+        <v>0.264</v>
       </c>
       <c r="F7">
-        <v>8.14E-06</v>
+        <v>0.00899</v>
       </c>
       <c r="G7">
-        <v>1.34E-06</v>
+        <v>0.00148</v>
       </c>
       <c r="H7">
-        <v>0.000429</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5096,19 +5096,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.79E-06</v>
+        <v>0.00309</v>
       </c>
       <c r="E8">
-        <v>9.3E-05</v>
+        <v>0.103</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>7.14E-06</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="H8">
-        <v>0.000167</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.09E-09</v>
+        <v>4.52E-06</v>
       </c>
       <c r="E9">
-        <v>1.36E-07</v>
+        <v>0.00015</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.58E-08</v>
+        <v>6.17E-05</v>
       </c>
       <c r="H9">
-        <v>2.44E-07</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5148,19 +5148,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.45E-14</v>
+        <v>2.7E-11</v>
       </c>
       <c r="E10">
-        <v>8.14E-13</v>
+        <v>9E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.37E-14</v>
+        <v>1.51E-11</v>
       </c>
       <c r="H10">
-        <v>1.46E-12</v>
+        <v>1.61E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5174,19 +5174,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.13E-13</v>
+        <v>6.77E-10</v>
       </c>
       <c r="E11">
-        <v>2.04E-11</v>
+        <v>2.25E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.48E-12</v>
+        <v>6.05E-09</v>
       </c>
       <c r="H11">
-        <v>3.66E-11</v>
+        <v>4.04E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5200,19 +5200,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.11E-14</v>
+        <v>5.64E-11</v>
       </c>
       <c r="E12">
-        <v>1.7E-12</v>
+        <v>1.88E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.13E-15</v>
+        <v>5.67E-12</v>
       </c>
       <c r="H12">
-        <v>3.05E-12</v>
+        <v>3.37E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5226,19 +5226,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.12E-08</v>
+        <v>1.24E-05</v>
       </c>
       <c r="E13">
-        <v>3.73E-07</v>
+        <v>0.000412</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.95E-10</v>
+        <v>7.68E-07</v>
       </c>
       <c r="H13">
-        <v>6.68E-07</v>
+        <v>0.000738</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5252,19 +5252,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.15E-07</v>
+        <v>0.000238</v>
       </c>
       <c r="E14">
-        <v>7.16E-06</v>
+        <v>0.00791</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.72E-08</v>
+        <v>5.22E-05</v>
       </c>
       <c r="H14">
-        <v>1.28E-05</v>
+        <v>0.0142</v>
       </c>
     </row>
   </sheetData>
@@ -5336,19 +5336,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.27E-08</v>
+        <v>4.67E-05</v>
       </c>
       <c r="E4">
-        <v>1.43E-06</v>
+        <v>0.00156</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.41E-09</v>
+        <v>4.82E-06</v>
       </c>
       <c r="H4">
-        <v>2.23E-06</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5362,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.32E-06</v>
+        <v>0.00253</v>
       </c>
       <c r="E5">
-        <v>7.74E-05</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.45E-07</v>
+        <v>0.000158</v>
       </c>
       <c r="H5">
-        <v>0.000121</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5388,19 +5388,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.21E-08</v>
+        <v>2.41E-05</v>
       </c>
       <c r="E6">
-        <v>7.37E-07</v>
+        <v>0.000806</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.09E-09</v>
+        <v>3.38E-06</v>
       </c>
       <c r="H6">
-        <v>1.15E-06</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5414,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.250000000000001E-06</v>
+        <v>0.00903</v>
       </c>
       <c r="E7">
-        <v>0.000276</v>
+        <v>0.302</v>
       </c>
       <c r="F7">
-        <v>8.399999999999999E-06</v>
+        <v>0.00919</v>
       </c>
       <c r="G7">
-        <v>1.28E-06</v>
+        <v>0.0014</v>
       </c>
       <c r="H7">
-        <v>0.000431</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5440,19 +5440,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.21E-06</v>
+        <v>0.00351</v>
       </c>
       <c r="E8">
-        <v>0.000107</v>
+        <v>0.117</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6.82E-06</v>
+        <v>0.00746</v>
       </c>
       <c r="H8">
-        <v>0.000168</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5466,19 +5466,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.69E-09</v>
+        <v>5.14E-06</v>
       </c>
       <c r="E9">
-        <v>1.57E-07</v>
+        <v>0.000172</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.33E-08</v>
+        <v>5.83E-05</v>
       </c>
       <c r="H9">
-        <v>2.45E-07</v>
+        <v>0.000268</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5492,19 +5492,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.81E-14</v>
+        <v>3.07E-11</v>
       </c>
       <c r="E10">
-        <v>9.38E-13</v>
+        <v>1.03E-09</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.31E-14</v>
+        <v>1.43E-11</v>
       </c>
       <c r="H10">
-        <v>1.47E-12</v>
+        <v>1.6E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5518,19 +5518,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.03E-13</v>
+        <v>7.7E-10</v>
       </c>
       <c r="E11">
-        <v>2.35E-11</v>
+        <v>2.57E-08</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.23E-12</v>
+        <v>5.72E-09</v>
       </c>
       <c r="H11">
-        <v>3.67E-11</v>
+        <v>4.02E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5544,19 +5544,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.86E-14</v>
+        <v>6.42E-11</v>
       </c>
       <c r="E12">
-        <v>1.96E-12</v>
+        <v>2.14E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.9E-15</v>
+        <v>5.36E-12</v>
       </c>
       <c r="H12">
-        <v>3.06E-12</v>
+        <v>3.35E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5570,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.29E-08</v>
+        <v>1.41E-05</v>
       </c>
       <c r="E13">
-        <v>4.29E-07</v>
+        <v>0.00047</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6.64E-10</v>
+        <v>7.26E-07</v>
       </c>
       <c r="H13">
-        <v>6.71E-07</v>
+        <v>0.000735</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5596,19 +5596,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.47E-07</v>
+        <v>0.00027</v>
       </c>
       <c r="E14">
-        <v>8.260000000000001E-06</v>
+        <v>0.00903</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.51E-08</v>
+        <v>4.93E-05</v>
       </c>
       <c r="H14">
-        <v>1.29E-05</v>
+        <v>0.0141</v>
       </c>
     </row>
   </sheetData>
@@ -5677,22 +5677,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>2.24E-10</v>
+        <v>3.23E-07</v>
       </c>
       <c r="D4">
-        <v>4.43E-09</v>
+        <v>6.39E-06</v>
       </c>
       <c r="E4">
-        <v>1.53E-07</v>
+        <v>0.000221</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.46E-10</v>
+        <v>1.08E-06</v>
       </c>
       <c r="H4">
-        <v>1.94E-06</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5703,22 +5703,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.08E-08</v>
+        <v>1.56E-05</v>
       </c>
       <c r="D5">
-        <v>2.4E-07</v>
+        <v>0.000347</v>
       </c>
       <c r="E5">
-        <v>8.32E-06</v>
+        <v>0.012</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.45E-08</v>
+        <v>3.53E-05</v>
       </c>
       <c r="H5">
-        <v>0.000105</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5729,22 +5729,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.15E-10</v>
+        <v>1.66E-07</v>
       </c>
       <c r="D6">
-        <v>2.29E-09</v>
+        <v>3.31E-06</v>
       </c>
       <c r="E6">
-        <v>7.93E-08</v>
+        <v>0.000114</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.22E-10</v>
+        <v>7.54E-07</v>
       </c>
       <c r="H6">
-        <v>1E-06</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5755,22 +5755,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3.98E-08</v>
+        <v>5.74E-05</v>
       </c>
       <c r="D7">
-        <v>8.57E-07</v>
+        <v>0.00124</v>
       </c>
       <c r="E7">
-        <v>2.97E-05</v>
+        <v>0.0428</v>
       </c>
       <c r="F7">
-        <v>9.590000000000001E-07</v>
+        <v>0.00138</v>
       </c>
       <c r="G7">
-        <v>2.16E-07</v>
+        <v>0.000311</v>
       </c>
       <c r="H7">
-        <v>0.000375</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5781,22 +5781,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2.15E-08</v>
+        <v>3.11E-05</v>
       </c>
       <c r="D8">
-        <v>3.33E-07</v>
+        <v>0.000481</v>
       </c>
       <c r="E8">
-        <v>1.15E-05</v>
+        <v>0.0166</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.15E-06</v>
+        <v>0.00166</v>
       </c>
       <c r="H8">
-        <v>0.000146</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5807,22 +5807,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3.09E-11</v>
+        <v>4.47E-08</v>
       </c>
       <c r="D9">
-        <v>4.88E-10</v>
+        <v>7.04E-07</v>
       </c>
       <c r="E9">
-        <v>1.69E-08</v>
+        <v>2.44E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9.009999999999999E-09</v>
+        <v>1.3E-05</v>
       </c>
       <c r="H9">
-        <v>2.13E-07</v>
+        <v>0.000308</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5833,22 +5833,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>2E-16</v>
+        <v>2.89E-13</v>
       </c>
       <c r="D10">
-        <v>2.92E-15</v>
+        <v>4.21E-12</v>
       </c>
       <c r="E10">
-        <v>1.01E-13</v>
+        <v>1.46E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.21E-15</v>
+        <v>3.19E-12</v>
       </c>
       <c r="H10">
-        <v>1.28E-12</v>
+        <v>1.84E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5859,22 +5859,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.84E-15</v>
+        <v>4.1E-12</v>
       </c>
       <c r="D11">
-        <v>7.3E-14</v>
+        <v>1.05E-10</v>
       </c>
       <c r="E11">
-        <v>2.53E-12</v>
+        <v>3.65E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8.85E-13</v>
+        <v>1.28E-09</v>
       </c>
       <c r="H11">
-        <v>3.2E-11</v>
+        <v>4.62E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5885,22 +5885,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.38E-14</v>
+        <v>1.99E-11</v>
       </c>
       <c r="D12">
-        <v>6.09E-15</v>
+        <v>8.79E-12</v>
       </c>
       <c r="E12">
-        <v>2.11E-13</v>
+        <v>3.04E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>8.29E-16</v>
+        <v>1.2E-12</v>
       </c>
       <c r="H12">
-        <v>2.67E-12</v>
+        <v>3.85E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5911,22 +5911,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>5.66E-11</v>
+        <v>8.17E-08</v>
       </c>
       <c r="D13">
-        <v>1.33E-09</v>
+        <v>1.93E-06</v>
       </c>
       <c r="E13">
-        <v>4.62E-08</v>
+        <v>6.669999999999999E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.12E-10</v>
+        <v>1.62E-07</v>
       </c>
       <c r="H13">
-        <v>5.85E-07</v>
+        <v>0.000844</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5937,22 +5937,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.46E-09</v>
+        <v>2.11E-06</v>
       </c>
       <c r="D14">
-        <v>2.57E-08</v>
+        <v>3.7E-05</v>
       </c>
       <c r="E14">
-        <v>8.88E-07</v>
+        <v>0.00128</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7.62E-09</v>
+        <v>1.1E-05</v>
       </c>
       <c r="H14">
-        <v>1.12E-05</v>
+        <v>0.0162</v>
       </c>
     </row>
   </sheetData>
@@ -6021,22 +6021,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1.81E-10</v>
+        <v>2.44E-07</v>
       </c>
       <c r="D4">
-        <v>9.33E-09</v>
+        <v>1.26E-05</v>
       </c>
       <c r="E4">
-        <v>2.98E-07</v>
+        <v>0.000401</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.86E-10</v>
+        <v>7.9E-07</v>
       </c>
       <c r="H4">
-        <v>2.01E-06</v>
+        <v>0.00271</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6047,22 +6047,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>8.750000000000001E-09</v>
+        <v>1.18E-05</v>
       </c>
       <c r="D5">
-        <v>5.06E-07</v>
+        <v>0.000683</v>
       </c>
       <c r="E5">
-        <v>1.61E-05</v>
+        <v>0.0218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.92E-08</v>
+        <v>2.59E-05</v>
       </c>
       <c r="H5">
-        <v>0.000109</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6073,22 +6073,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>9.29E-11</v>
+        <v>1.25E-07</v>
       </c>
       <c r="D6">
-        <v>4.82E-09</v>
+        <v>6.51E-06</v>
       </c>
       <c r="E6">
-        <v>1.54E-07</v>
+        <v>0.000208</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.1E-10</v>
+        <v>5.53E-07</v>
       </c>
       <c r="H6">
-        <v>1.04E-06</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6099,22 +6099,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3.22E-08</v>
+        <v>4.35E-05</v>
       </c>
       <c r="D7">
-        <v>1.8E-06</v>
+        <v>0.00243</v>
       </c>
       <c r="E7">
-        <v>5.75E-05</v>
+        <v>0.0776</v>
       </c>
       <c r="F7">
-        <v>1.31E-06</v>
+        <v>0.00176</v>
       </c>
       <c r="G7">
-        <v>1.7E-07</v>
+        <v>0.000229</v>
       </c>
       <c r="H7">
-        <v>0.000388</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6125,22 +6125,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1.74E-08</v>
+        <v>2.35E-05</v>
       </c>
       <c r="D8">
-        <v>7.01E-07</v>
+        <v>0.000946</v>
       </c>
       <c r="E8">
-        <v>2.24E-05</v>
+        <v>0.0302</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9.06E-07</v>
+        <v>0.00122</v>
       </c>
       <c r="H8">
-        <v>0.000151</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6151,22 +6151,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2.51E-11</v>
+        <v>3.38E-08</v>
       </c>
       <c r="D9">
-        <v>1.03E-09</v>
+        <v>1.38E-06</v>
       </c>
       <c r="E9">
-        <v>3.27E-08</v>
+        <v>4.42E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.08E-09</v>
+        <v>9.55E-06</v>
       </c>
       <c r="H9">
-        <v>2.21E-07</v>
+        <v>0.000298</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6177,22 +6177,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1.62E-16</v>
+        <v>2.19E-13</v>
       </c>
       <c r="D10">
-        <v>6.14E-15</v>
+        <v>8.279999999999999E-12</v>
       </c>
       <c r="E10">
-        <v>1.96E-13</v>
+        <v>2.64E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.74E-15</v>
+        <v>2.34E-12</v>
       </c>
       <c r="H10">
-        <v>1.32E-12</v>
+        <v>1.78E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6203,22 +6203,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.3E-15</v>
+        <v>3.11E-12</v>
       </c>
       <c r="D11">
-        <v>1.54E-13</v>
+        <v>2.07E-10</v>
       </c>
       <c r="E11">
-        <v>4.91E-12</v>
+        <v>6.62E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6.95E-13</v>
+        <v>9.380000000000001E-10</v>
       </c>
       <c r="H11">
-        <v>3.31E-11</v>
+        <v>4.46E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6229,22 +6229,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.11E-14</v>
+        <v>1.5E-11</v>
       </c>
       <c r="D12">
-        <v>1.28E-14</v>
+        <v>1.73E-11</v>
       </c>
       <c r="E12">
-        <v>4.09E-13</v>
+        <v>5.52E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6.51E-16</v>
+        <v>8.78E-13</v>
       </c>
       <c r="H12">
-        <v>2.76E-12</v>
+        <v>3.72E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6255,22 +6255,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>4.58E-11</v>
+        <v>6.18E-08</v>
       </c>
       <c r="D13">
-        <v>2.81E-09</v>
+        <v>3.79E-06</v>
       </c>
       <c r="E13">
-        <v>8.97E-08</v>
+        <v>0.000121</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>8.82E-11</v>
+        <v>1.19E-07</v>
       </c>
       <c r="H13">
-        <v>6.05E-07</v>
+        <v>0.000816</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6281,22 +6281,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.18E-09</v>
+        <v>1.6E-06</v>
       </c>
       <c r="D14">
-        <v>5.4E-08</v>
+        <v>7.29E-05</v>
       </c>
       <c r="E14">
-        <v>1.72E-06</v>
+        <v>0.00233</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.99E-09</v>
+        <v>8.080000000000001E-06</v>
       </c>
       <c r="H14">
-        <v>1.16E-05</v>
+        <v>0.0157</v>
       </c>
     </row>
   </sheetData>
@@ -6365,22 +6365,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>1.99E-10</v>
+        <v>2.45E-07</v>
       </c>
       <c r="D4">
-        <v>4.73E-09</v>
+        <v>5.84E-06</v>
       </c>
       <c r="E4">
-        <v>1.78E-07</v>
+        <v>0.00022</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.440000000000001E-10</v>
+        <v>7.96E-07</v>
       </c>
       <c r="H4">
-        <v>2.1E-06</v>
+        <v>0.00259</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6391,22 +6391,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>9.58E-09</v>
+        <v>1.18E-05</v>
       </c>
       <c r="D5">
-        <v>2.57E-07</v>
+        <v>0.000317</v>
       </c>
       <c r="E5">
-        <v>9.670000000000001E-06</v>
+        <v>0.0119</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.11E-08</v>
+        <v>2.61E-05</v>
       </c>
       <c r="H5">
-        <v>0.000114</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6417,22 +6417,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1.02E-10</v>
+        <v>1.26E-07</v>
       </c>
       <c r="D6">
-        <v>2.45E-09</v>
+        <v>3.02E-06</v>
       </c>
       <c r="E6">
-        <v>9.21E-08</v>
+        <v>0.000114</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.51E-10</v>
+        <v>5.57E-07</v>
       </c>
       <c r="H6">
-        <v>1.08E-06</v>
+        <v>0.00134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6443,22 +6443,22 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>3.53E-08</v>
+        <v>4.36E-05</v>
       </c>
       <c r="D7">
-        <v>9.15E-07</v>
+        <v>0.00113</v>
       </c>
       <c r="E7">
-        <v>3.45E-05</v>
+        <v>0.0425</v>
       </c>
       <c r="F7">
-        <v>1.91E-06</v>
+        <v>0.00235</v>
       </c>
       <c r="G7">
-        <v>1.86E-07</v>
+        <v>0.00023</v>
       </c>
       <c r="H7">
-        <v>0.000406</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6469,22 +6469,22 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>1.91E-08</v>
+        <v>2.36E-05</v>
       </c>
       <c r="D8">
-        <v>3.56E-07</v>
+        <v>0.000439</v>
       </c>
       <c r="E8">
-        <v>1.34E-05</v>
+        <v>0.0165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9.969999999999999E-07</v>
+        <v>0.00123</v>
       </c>
       <c r="H8">
-        <v>0.000158</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6495,22 +6495,22 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>2.75E-11</v>
+        <v>3.39E-08</v>
       </c>
       <c r="D9">
-        <v>5.2E-10</v>
+        <v>6.42E-07</v>
       </c>
       <c r="E9">
-        <v>1.96E-08</v>
+        <v>2.42E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.790000000000001E-09</v>
+        <v>9.619999999999999E-06</v>
       </c>
       <c r="H9">
-        <v>2.31E-07</v>
+        <v>0.000285</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6521,22 +6521,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1.78E-16</v>
+        <v>2.19E-13</v>
       </c>
       <c r="D10">
-        <v>3.11E-15</v>
+        <v>3.84E-12</v>
       </c>
       <c r="E10">
-        <v>1.17E-13</v>
+        <v>1.45E-10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.91E-15</v>
+        <v>2.36E-12</v>
       </c>
       <c r="H10">
-        <v>1.38E-12</v>
+        <v>1.71E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6547,22 +6547,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>2.52E-15</v>
+        <v>3.12E-12</v>
       </c>
       <c r="D11">
-        <v>7.8E-14</v>
+        <v>9.630000000000001E-11</v>
       </c>
       <c r="E11">
-        <v>2.94E-12</v>
+        <v>3.63E-09</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>7.65E-13</v>
+        <v>9.44E-10</v>
       </c>
       <c r="H11">
-        <v>3.46E-11</v>
+        <v>4.27E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6573,22 +6573,22 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>1.22E-14</v>
+        <v>1.51E-11</v>
       </c>
       <c r="D12">
-        <v>6.5E-15</v>
+        <v>8.02E-12</v>
       </c>
       <c r="E12">
-        <v>2.45E-13</v>
+        <v>3.02E-10</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>7.16E-16</v>
+        <v>8.84E-13</v>
       </c>
       <c r="H12">
-        <v>2.88E-12</v>
+        <v>3.56E-09</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6599,22 +6599,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>5.02E-11</v>
+        <v>6.2E-08</v>
       </c>
       <c r="D13">
-        <v>1.42E-09</v>
+        <v>1.76E-06</v>
       </c>
       <c r="E13">
-        <v>5.37E-08</v>
+        <v>6.63E-05</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9.7E-11</v>
+        <v>1.2E-07</v>
       </c>
       <c r="H13">
-        <v>6.32E-07</v>
+        <v>0.00078</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6625,22 +6625,22 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>1.3E-09</v>
+        <v>1.6E-06</v>
       </c>
       <c r="D14">
-        <v>2.74E-08</v>
+        <v>3.38E-05</v>
       </c>
       <c r="E14">
-        <v>1.03E-06</v>
+        <v>0.00127</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6.59E-09</v>
+        <v>8.13E-06</v>
       </c>
       <c r="H14">
-        <v>1.22E-05</v>
+        <v>0.015</v>
       </c>
     </row>
   </sheetData>

--- a/baseline-lcia/hhv_hc_lcia.xlsx
+++ b/baseline-lcia/hhv_hc_lcia.xlsx
@@ -532,7 +532,7 @@
         <v>8.13E-06</v>
       </c>
       <c r="H4">
-        <v>0.00259</v>
+        <v>3.63E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -558,7 +558,7 @@
         <v>0.000267</v>
       </c>
       <c r="H5">
-        <v>0.141</v>
+        <v>0.00197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -584,7 +584,7 @@
         <v>5.69E-06</v>
       </c>
       <c r="H6">
-        <v>0.00134</v>
+        <v>1.88E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -610,7 +610,7 @@
         <v>0.00235</v>
       </c>
       <c r="H7">
-        <v>0.501</v>
+        <v>0.00701</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -636,7 +636,7 @@
         <v>0.0126</v>
       </c>
       <c r="H8">
-        <v>0.195</v>
+        <v>0.00273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -662,7 +662,7 @@
         <v>9.83E-05</v>
       </c>
       <c r="H9">
-        <v>0.000285</v>
+        <v>3.99E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -688,7 +688,7 @@
         <v>2.41E-11</v>
       </c>
       <c r="H10">
-        <v>1.71E-09</v>
+        <v>2.39E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -714,7 +714,7 @@
         <v>9.65E-09</v>
       </c>
       <c r="H11">
-        <v>4.27E-08</v>
+        <v>5.98E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -740,7 +740,7 @@
         <v>9.04E-12</v>
       </c>
       <c r="H12">
-        <v>3.56E-09</v>
+        <v>4.98E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,7 +766,7 @@
         <v>1.22E-06</v>
       </c>
       <c r="H13">
-        <v>0.000781</v>
+        <v>1.09E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -792,7 +792,7 @@
         <v>8.31E-05</v>
       </c>
       <c r="H14">
-        <v>0.015</v>
+        <v>0.00021</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +876,7 @@
         <v>7.8E-07</v>
       </c>
       <c r="H4">
-        <v>0.00253</v>
+        <v>3.54E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -902,7 +902,7 @@
         <v>2.56E-05</v>
       </c>
       <c r="H5">
-        <v>0.137</v>
+        <v>0.00192</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -928,7 +928,7 @@
         <v>5.46E-07</v>
       </c>
       <c r="H6">
-        <v>0.00131</v>
+        <v>1.83E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -954,7 +954,7 @@
         <v>0.000226</v>
       </c>
       <c r="H7">
-        <v>0.489</v>
+        <v>0.00684</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -980,7 +980,7 @@
         <v>0.00121</v>
       </c>
       <c r="H8">
-        <v>0.19</v>
+        <v>0.00266</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1006,7 +1006,7 @@
         <v>9.42E-06</v>
       </c>
       <c r="H9">
-        <v>0.000278</v>
+        <v>3.89E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1032,7 +1032,7 @@
         <v>2.31E-12</v>
       </c>
       <c r="H10">
-        <v>1.66E-09</v>
+        <v>2.33E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1058,7 +1058,7 @@
         <v>9.25E-10</v>
       </c>
       <c r="H11">
-        <v>4.17E-08</v>
+        <v>5.83E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1084,7 +1084,7 @@
         <v>8.66E-13</v>
       </c>
       <c r="H12">
-        <v>3.48E-09</v>
+        <v>4.86E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1110,7 +1110,7 @@
         <v>1.17E-07</v>
       </c>
       <c r="H13">
-        <v>0.000762</v>
+        <v>1.07E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1136,7 +1136,7 @@
         <v>7.97E-06</v>
       </c>
       <c r="H14">
-        <v>0.0146</v>
+        <v>0.000205</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>8.24E-07</v>
       </c>
       <c r="H4">
-        <v>0.00244</v>
+        <v>3.41E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1246,7 +1246,7 @@
         <v>2.7E-05</v>
       </c>
       <c r="H5">
-        <v>0.132</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1272,7 +1272,7 @@
         <v>5.77E-07</v>
       </c>
       <c r="H6">
-        <v>0.00126</v>
+        <v>1.76E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1298,7 +1298,7 @@
         <v>0.000238</v>
       </c>
       <c r="H7">
-        <v>0.472</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1324,7 +1324,7 @@
         <v>0.00127</v>
       </c>
       <c r="H8">
-        <v>0.183</v>
+        <v>0.00257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1350,7 +1350,7 @@
         <v>9.95E-06</v>
       </c>
       <c r="H9">
-        <v>0.000268</v>
+        <v>3.75E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1376,7 +1376,7 @@
         <v>2.44E-12</v>
       </c>
       <c r="H10">
-        <v>1.61E-09</v>
+        <v>2.25E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1402,7 +1402,7 @@
         <v>9.77E-10</v>
       </c>
       <c r="H11">
-        <v>4.02E-08</v>
+        <v>5.63E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1428,7 +1428,7 @@
         <v>9.15E-13</v>
       </c>
       <c r="H12">
-        <v>3.35E-09</v>
+        <v>4.69E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1454,7 +1454,7 @@
         <v>1.24E-07</v>
       </c>
       <c r="H13">
-        <v>0.000735</v>
+        <v>1.03E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1480,7 +1480,7 @@
         <v>8.420000000000001E-06</v>
       </c>
       <c r="H14">
-        <v>0.0141</v>
+        <v>0.000198</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
         <v>7.38E-07</v>
       </c>
       <c r="H4">
-        <v>0.00232</v>
+        <v>3.24E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1590,7 +1590,7 @@
         <v>2.42E-05</v>
       </c>
       <c r="H5">
-        <v>0.126</v>
+        <v>0.00176</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1616,7 +1616,7 @@
         <v>5.16E-07</v>
       </c>
       <c r="H6">
-        <v>0.0012</v>
+        <v>1.68E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1642,7 +1642,7 @@
         <v>0.000213</v>
       </c>
       <c r="H7">
-        <v>0.448</v>
+        <v>0.00627</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1668,7 +1668,7 @@
         <v>0.00114</v>
       </c>
       <c r="H8">
-        <v>0.174</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1694,7 +1694,7 @@
         <v>8.909999999999999E-06</v>
       </c>
       <c r="H9">
-        <v>0.000255</v>
+        <v>3.57E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1720,7 +1720,7 @@
         <v>2.19E-12</v>
       </c>
       <c r="H10">
-        <v>1.53E-09</v>
+        <v>2.13E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1746,7 +1746,7 @@
         <v>8.75E-10</v>
       </c>
       <c r="H11">
-        <v>3.82E-08</v>
+        <v>5.34E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1772,7 +1772,7 @@
         <v>8.2E-13</v>
       </c>
       <c r="H12">
-        <v>3.19E-09</v>
+        <v>4.45E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1798,7 +1798,7 @@
         <v>1.11E-07</v>
       </c>
       <c r="H13">
-        <v>0.0006980000000000001</v>
+        <v>9.77E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1824,7 +1824,7 @@
         <v>7.54E-06</v>
       </c>
       <c r="H14">
-        <v>0.0134</v>
+        <v>0.000188</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1908,7 @@
         <v>3.88E-07</v>
       </c>
       <c r="H4">
-        <v>0.00211</v>
+        <v>2.95E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1934,7 +1934,7 @@
         <v>1.27E-05</v>
       </c>
       <c r="H5">
-        <v>0.115</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1960,7 +1960,7 @@
         <v>2.72E-07</v>
       </c>
       <c r="H6">
-        <v>0.00109</v>
+        <v>1.53E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1986,7 +1986,7 @@
         <v>0.000112</v>
       </c>
       <c r="H7">
-        <v>0.408</v>
+        <v>0.00571</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2012,7 +2012,7 @@
         <v>0.000601</v>
       </c>
       <c r="H8">
-        <v>0.159</v>
+        <v>0.00222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2038,7 +2038,7 @@
         <v>4.69E-06</v>
       </c>
       <c r="H9">
-        <v>0.000232</v>
+        <v>3.25E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2064,7 +2064,7 @@
         <v>1.15E-12</v>
       </c>
       <c r="H10">
-        <v>1.39E-09</v>
+        <v>1.94E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2090,7 +2090,7 @@
         <v>4.61E-10</v>
       </c>
       <c r="H11">
-        <v>3.48E-08</v>
+        <v>4.87E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2116,7 +2116,7 @@
         <v>4.32E-13</v>
       </c>
       <c r="H12">
-        <v>2.9E-09</v>
+        <v>4.06E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2142,7 +2142,7 @@
         <v>5.85E-08</v>
       </c>
       <c r="H13">
-        <v>0.000636</v>
+        <v>8.899999999999999E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2168,7 +2168,7 @@
         <v>3.97E-06</v>
       </c>
       <c r="H14">
-        <v>0.0122</v>
+        <v>0.000171</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2252,7 @@
         <v>3.39E-07</v>
       </c>
       <c r="H4">
-        <v>0.00214</v>
+        <v>3E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2278,7 +2278,7 @@
         <v>1.11E-05</v>
       </c>
       <c r="H5">
-        <v>0.116</v>
+        <v>0.00163</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2304,7 +2304,7 @@
         <v>2.37E-07</v>
       </c>
       <c r="H6">
-        <v>0.00111</v>
+        <v>1.55E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2330,7 +2330,7 @@
         <v>9.81E-05</v>
       </c>
       <c r="H7">
-        <v>0.414</v>
+        <v>0.00579</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2356,7 +2356,7 @@
         <v>0.0005240000000000001</v>
       </c>
       <c r="H8">
-        <v>0.161</v>
+        <v>0.00225</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2382,7 +2382,7 @@
         <v>4.1E-06</v>
       </c>
       <c r="H9">
-        <v>0.000236</v>
+        <v>3.3E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2408,7 +2408,7 @@
         <v>1.01E-12</v>
       </c>
       <c r="H10">
-        <v>1.41E-09</v>
+        <v>1.97E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2434,7 +2434,7 @@
         <v>4.02E-10</v>
       </c>
       <c r="H11">
-        <v>3.53E-08</v>
+        <v>4.939999999999999E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2460,7 +2460,7 @@
         <v>3.77E-13</v>
       </c>
       <c r="H12">
-        <v>2.94E-09</v>
+        <v>4.12E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2486,7 +2486,7 @@
         <v>5.1E-08</v>
       </c>
       <c r="H13">
-        <v>0.000645</v>
+        <v>9.03E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2512,7 +2512,7 @@
         <v>3.47E-06</v>
       </c>
       <c r="H14">
-        <v>0.0124</v>
+        <v>0.000174</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2596,7 @@
         <v>3.16E-07</v>
       </c>
       <c r="H4">
-        <v>0.00212</v>
+        <v>2.97E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2622,7 +2622,7 @@
         <v>1.04E-05</v>
       </c>
       <c r="H5">
-        <v>0.115</v>
+        <v>0.00161</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2648,7 +2648,7 @@
         <v>2.21E-07</v>
       </c>
       <c r="H6">
-        <v>0.0011</v>
+        <v>1.53E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2674,7 +2674,7 @@
         <v>9.15E-05</v>
       </c>
       <c r="H7">
-        <v>0.41</v>
+        <v>0.00574</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2700,7 +2700,7 @@
         <v>0.000489</v>
       </c>
       <c r="H8">
-        <v>0.159</v>
+        <v>0.00223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2726,7 +2726,7 @@
         <v>3.82E-06</v>
       </c>
       <c r="H9">
-        <v>0.000233</v>
+        <v>3.26E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2752,7 +2752,7 @@
         <v>9.38E-13</v>
       </c>
       <c r="H10">
-        <v>1.4E-09</v>
+        <v>1.95E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2778,7 +2778,7 @@
         <v>3.75E-10</v>
       </c>
       <c r="H11">
-        <v>3.5E-08</v>
+        <v>4.89E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2804,7 +2804,7 @@
         <v>3.52E-13</v>
       </c>
       <c r="H12">
-        <v>2.91E-09</v>
+        <v>4.08E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2830,7 +2830,7 @@
         <v>4.76E-08</v>
       </c>
       <c r="H13">
-        <v>0.000639</v>
+        <v>8.940000000000001E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2856,7 +2856,7 @@
         <v>3.23E-06</v>
       </c>
       <c r="H14">
-        <v>0.0123</v>
+        <v>0.000172</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2940,7 @@
         <v>2.98E-07</v>
       </c>
       <c r="H4">
-        <v>0.00209</v>
+        <v>2.92E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>9.76E-06</v>
       </c>
       <c r="H5">
-        <v>0.113</v>
+        <v>0.00158</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2.08E-07</v>
       </c>
       <c r="H6">
-        <v>0.00108</v>
+        <v>1.51E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8.610000000000001E-05</v>
       </c>
       <c r="H7">
-        <v>0.403</v>
+        <v>0.00564</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>0.00046</v>
       </c>
       <c r="H8">
-        <v>0.157</v>
+        <v>0.00219</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>3.6E-06</v>
       </c>
       <c r="H9">
-        <v>0.000229</v>
+        <v>3.21E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8.82E-13</v>
       </c>
       <c r="H10">
-        <v>1.37E-09</v>
+        <v>1.92E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3.53E-10</v>
       </c>
       <c r="H11">
-        <v>3.44E-08</v>
+        <v>4.81E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>3.31E-13</v>
       </c>
       <c r="H12">
-        <v>2.87E-09</v>
+        <v>4.01E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>4.48E-08</v>
       </c>
       <c r="H13">
-        <v>0.000628</v>
+        <v>8.790000000000001E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>3.04E-06</v>
       </c>
       <c r="H14">
-        <v>0.0121</v>
+        <v>0.000169</v>
       </c>
     </row>
   </sheetData>
@@ -3284,7 +3284,7 @@
         <v>3.1E-07</v>
       </c>
       <c r="H4">
-        <v>0.00205</v>
+        <v>2.87E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3310,7 +3310,7 @@
         <v>1.02E-05</v>
       </c>
       <c r="H5">
-        <v>0.111</v>
+        <v>0.00156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3336,7 +3336,7 @@
         <v>2.17E-07</v>
       </c>
       <c r="H6">
-        <v>0.00106</v>
+        <v>1.48E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3362,7 +3362,7 @@
         <v>8.97E-05</v>
       </c>
       <c r="H7">
-        <v>0.397</v>
+        <v>0.00555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3388,7 +3388,7 @@
         <v>0.000479</v>
       </c>
       <c r="H8">
-        <v>0.154</v>
+        <v>0.00216</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3414,7 +3414,7 @@
         <v>3.75E-06</v>
       </c>
       <c r="H9">
-        <v>0.000226</v>
+        <v>3.16E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3440,7 +3440,7 @@
         <v>9.19E-13</v>
       </c>
       <c r="H10">
-        <v>1.35E-09</v>
+        <v>1.89E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3466,7 +3466,7 @@
         <v>3.68E-10</v>
       </c>
       <c r="H11">
-        <v>3.38E-08</v>
+        <v>4.73E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3492,7 +3492,7 @@
         <v>3.45E-13</v>
       </c>
       <c r="H12">
-        <v>2.82E-09</v>
+        <v>3.94E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3518,7 +3518,7 @@
         <v>4.67E-08</v>
       </c>
       <c r="H13">
-        <v>0.000618</v>
+        <v>8.64E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3544,7 +3544,7 @@
         <v>3.17E-06</v>
       </c>
       <c r="H14">
-        <v>0.0119</v>
+        <v>0.000166</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3628,7 @@
         <v>2.84E-07</v>
       </c>
       <c r="H4">
-        <v>0.00204</v>
+        <v>2.85E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3654,7 +3654,7 @@
         <v>9.310000000000001E-06</v>
       </c>
       <c r="H5">
-        <v>0.11</v>
+        <v>0.00155</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3680,7 +3680,7 @@
         <v>1.99E-07</v>
       </c>
       <c r="H6">
-        <v>0.00105</v>
+        <v>1.47E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3706,7 +3706,7 @@
         <v>8.21E-05</v>
       </c>
       <c r="H7">
-        <v>0.394</v>
+        <v>0.00551</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3732,7 +3732,7 @@
         <v>0.000439</v>
       </c>
       <c r="H8">
-        <v>0.153</v>
+        <v>0.00214</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3758,7 +3758,7 @@
         <v>3.43E-06</v>
       </c>
       <c r="H9">
-        <v>0.000224</v>
+        <v>3.13E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3784,7 +3784,7 @@
         <v>8.41E-13</v>
       </c>
       <c r="H10">
-        <v>1.34E-09</v>
+        <v>1.87E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3810,7 +3810,7 @@
         <v>3.37E-10</v>
       </c>
       <c r="H11">
-        <v>3.36E-08</v>
+        <v>4.69E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3836,7 +3836,7 @@
         <v>3.15E-13</v>
       </c>
       <c r="H12">
-        <v>2.8E-09</v>
+        <v>3.91E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3862,7 +3862,7 @@
         <v>4.27E-08</v>
       </c>
       <c r="H13">
-        <v>0.000613</v>
+        <v>8.579999999999999E-06</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3888,7 +3888,7 @@
         <v>2.9E-06</v>
       </c>
       <c r="H14">
-        <v>0.0118</v>
+        <v>0.000165</v>
       </c>
     </row>
   </sheetData>
@@ -3972,7 +3972,7 @@
         <v>5.38E-06</v>
       </c>
       <c r="H4">
-        <v>0.00263</v>
+        <v>3.68E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3998,7 +3998,7 @@
         <v>0.000177</v>
       </c>
       <c r="H5">
-        <v>0.143</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4024,7 +4024,7 @@
         <v>3.77E-06</v>
       </c>
       <c r="H6">
-        <v>0.00136</v>
+        <v>1.9E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4050,7 +4050,7 @@
         <v>0.00156</v>
       </c>
       <c r="H7">
-        <v>0.509</v>
+        <v>0.00711</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4076,7 +4076,7 @@
         <v>0.008319999999999999</v>
       </c>
       <c r="H8">
-        <v>0.198</v>
+        <v>0.00277</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4102,7 +4102,7 @@
         <v>6.499999999999999E-05</v>
       </c>
       <c r="H9">
-        <v>0.000289</v>
+        <v>4.05E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4128,7 +4128,7 @@
         <v>1.6E-11</v>
       </c>
       <c r="H10">
-        <v>1.73E-09</v>
+        <v>2.42E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4154,7 +4154,7 @@
         <v>6.39E-09</v>
       </c>
       <c r="H11">
-        <v>4.34E-08</v>
+        <v>6.06E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4180,7 +4180,7 @@
         <v>5.98E-12</v>
       </c>
       <c r="H12">
-        <v>3.61E-09</v>
+        <v>5.06E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4206,7 +4206,7 @@
         <v>8.1E-07</v>
       </c>
       <c r="H13">
-        <v>0.000792</v>
+        <v>1.11E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4232,7 +4232,7 @@
         <v>5.5E-05</v>
       </c>
       <c r="H14">
-        <v>0.0152</v>
+        <v>0.000213</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4316,7 @@
         <v>5.33E-06</v>
       </c>
       <c r="H4">
-        <v>0.00255</v>
+        <v>3.57E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4342,7 +4342,7 @@
         <v>0.000175</v>
       </c>
       <c r="H5">
-        <v>0.138</v>
+        <v>0.00194</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4368,7 +4368,7 @@
         <v>3.73E-06</v>
       </c>
       <c r="H6">
-        <v>0.00132</v>
+        <v>1.84E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4394,7 +4394,7 @@
         <v>0.00154</v>
       </c>
       <c r="H7">
-        <v>0.493</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4420,7 +4420,7 @@
         <v>0.008240000000000001</v>
       </c>
       <c r="H8">
-        <v>0.192</v>
+        <v>0.00268</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4446,7 +4446,7 @@
         <v>6.439999999999999E-05</v>
       </c>
       <c r="H9">
-        <v>0.000281</v>
+        <v>3.93E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4472,7 +4472,7 @@
         <v>1.58E-11</v>
       </c>
       <c r="H10">
-        <v>1.68E-09</v>
+        <v>2.35E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4498,7 +4498,7 @@
         <v>6.32E-09</v>
       </c>
       <c r="H11">
-        <v>4.21E-08</v>
+        <v>5.88E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4524,7 +4524,7 @@
         <v>5.92E-12</v>
       </c>
       <c r="H12">
-        <v>3.51E-09</v>
+        <v>4.9E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4550,7 +4550,7 @@
         <v>8.02E-07</v>
       </c>
       <c r="H13">
-        <v>0.000769</v>
+        <v>1.07E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4576,7 +4576,7 @@
         <v>5.45E-05</v>
       </c>
       <c r="H14">
-        <v>0.0148</v>
+        <v>0.000207</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4660,7 @@
         <v>5.72E-06</v>
       </c>
       <c r="H4">
-        <v>0.00256</v>
+        <v>3.58E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4686,7 +4686,7 @@
         <v>0.000188</v>
       </c>
       <c r="H5">
-        <v>0.139</v>
+        <v>0.00194</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4712,7 +4712,7 @@
         <v>4E-06</v>
       </c>
       <c r="H6">
-        <v>0.00132</v>
+        <v>1.85E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4738,7 +4738,7 @@
         <v>0.00165</v>
       </c>
       <c r="H7">
-        <v>0.495</v>
+        <v>0.00692</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4764,7 +4764,7 @@
         <v>0.008840000000000001</v>
       </c>
       <c r="H8">
-        <v>0.192</v>
+        <v>0.00269</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4790,7 +4790,7 @@
         <v>6.91E-05</v>
       </c>
       <c r="H9">
-        <v>0.000282</v>
+        <v>3.94E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4816,7 +4816,7 @@
         <v>1.7E-11</v>
       </c>
       <c r="H10">
-        <v>1.69E-09</v>
+        <v>2.36E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4842,7 +4842,7 @@
         <v>6.78E-09</v>
       </c>
       <c r="H11">
-        <v>4.22E-08</v>
+        <v>5.9E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4868,7 +4868,7 @@
         <v>6.36E-12</v>
       </c>
       <c r="H12">
-        <v>3.52E-09</v>
+        <v>4.92E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4894,7 +4894,7 @@
         <v>8.6E-07</v>
       </c>
       <c r="H13">
-        <v>0.000771</v>
+        <v>1.08E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4920,7 +4920,7 @@
         <v>5.84E-05</v>
       </c>
       <c r="H14">
-        <v>0.0148</v>
+        <v>0.000207</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5004,7 @@
         <v>5.1E-06</v>
       </c>
       <c r="H4">
-        <v>0.00245</v>
+        <v>3.43E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5030,7 +5030,7 @@
         <v>0.000167</v>
       </c>
       <c r="H5">
-        <v>0.133</v>
+        <v>0.00186</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5056,7 +5056,7 @@
         <v>3.57E-06</v>
       </c>
       <c r="H6">
-        <v>0.00127</v>
+        <v>1.77E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5082,7 +5082,7 @@
         <v>0.00148</v>
       </c>
       <c r="H7">
-        <v>0.474</v>
+        <v>0.00663</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5108,7 +5108,7 @@
         <v>0.007889999999999999</v>
       </c>
       <c r="H8">
-        <v>0.184</v>
+        <v>0.00258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5134,7 +5134,7 @@
         <v>6.17E-05</v>
       </c>
       <c r="H9">
-        <v>0.00027</v>
+        <v>3.77E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5160,7 +5160,7 @@
         <v>1.51E-11</v>
       </c>
       <c r="H10">
-        <v>1.61E-09</v>
+        <v>2.26E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5186,7 +5186,7 @@
         <v>6.05E-09</v>
       </c>
       <c r="H11">
-        <v>4.04E-08</v>
+        <v>5.65E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5212,7 +5212,7 @@
         <v>5.67E-12</v>
       </c>
       <c r="H12">
-        <v>3.37E-09</v>
+        <v>4.71E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5238,7 +5238,7 @@
         <v>7.68E-07</v>
       </c>
       <c r="H13">
-        <v>0.000738</v>
+        <v>1.03E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5264,7 +5264,7 @@
         <v>5.22E-05</v>
       </c>
       <c r="H14">
-        <v>0.0142</v>
+        <v>0.000198</v>
       </c>
     </row>
   </sheetData>
@@ -5348,7 +5348,7 @@
         <v>4.82E-06</v>
       </c>
       <c r="H4">
-        <v>0.00244</v>
+        <v>3.41E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5374,7 +5374,7 @@
         <v>0.000158</v>
       </c>
       <c r="H5">
-        <v>0.132</v>
+        <v>0.00185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5400,7 +5400,7 @@
         <v>3.38E-06</v>
       </c>
       <c r="H6">
-        <v>0.00126</v>
+        <v>1.76E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5426,7 +5426,7 @@
         <v>0.0014</v>
       </c>
       <c r="H7">
-        <v>0.471</v>
+        <v>0.00659</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5452,7 +5452,7 @@
         <v>0.00746</v>
       </c>
       <c r="H8">
-        <v>0.183</v>
+        <v>0.00256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5478,7 +5478,7 @@
         <v>5.83E-05</v>
       </c>
       <c r="H9">
-        <v>0.000268</v>
+        <v>3.75E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5504,7 +5504,7 @@
         <v>1.43E-11</v>
       </c>
       <c r="H10">
-        <v>1.6E-09</v>
+        <v>2.24E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5530,7 +5530,7 @@
         <v>5.72E-09</v>
       </c>
       <c r="H11">
-        <v>4.02E-08</v>
+        <v>5.62E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5556,7 +5556,7 @@
         <v>5.36E-12</v>
       </c>
       <c r="H12">
-        <v>3.35E-09</v>
+        <v>4.69E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5582,7 +5582,7 @@
         <v>7.26E-07</v>
       </c>
       <c r="H13">
-        <v>0.000735</v>
+        <v>1.03E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5608,7 +5608,7 @@
         <v>4.93E-05</v>
       </c>
       <c r="H14">
-        <v>0.0141</v>
+        <v>0.000197</v>
       </c>
     </row>
   </sheetData>
@@ -5692,7 +5692,7 @@
         <v>1.08E-06</v>
       </c>
       <c r="H4">
-        <v>0.0028</v>
+        <v>3.92E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5718,7 +5718,7 @@
         <v>3.53E-05</v>
       </c>
       <c r="H5">
-        <v>0.152</v>
+        <v>0.00213</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5744,7 +5744,7 @@
         <v>7.54E-07</v>
       </c>
       <c r="H6">
-        <v>0.00145</v>
+        <v>2.03E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5770,7 +5770,7 @@
         <v>0.000311</v>
       </c>
       <c r="H7">
-        <v>0.542</v>
+        <v>0.00757</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5796,7 +5796,7 @@
         <v>0.00166</v>
       </c>
       <c r="H8">
-        <v>0.211</v>
+        <v>0.00294</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5822,7 +5822,7 @@
         <v>1.3E-05</v>
       </c>
       <c r="H9">
-        <v>0.000308</v>
+        <v>4.31E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5848,7 +5848,7 @@
         <v>3.19E-12</v>
       </c>
       <c r="H10">
-        <v>1.84E-09</v>
+        <v>2.58E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5874,7 +5874,7 @@
         <v>1.28E-09</v>
       </c>
       <c r="H11">
-        <v>4.62E-08</v>
+        <v>6.46E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5900,7 +5900,7 @@
         <v>1.2E-12</v>
       </c>
       <c r="H12">
-        <v>3.85E-09</v>
+        <v>5.38E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5926,7 +5926,7 @@
         <v>1.62E-07</v>
       </c>
       <c r="H13">
-        <v>0.000844</v>
+        <v>1.18E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5952,7 +5952,7 @@
         <v>1.1E-05</v>
       </c>
       <c r="H14">
-        <v>0.0162</v>
+        <v>0.000227</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6036,7 @@
         <v>7.9E-07</v>
       </c>
       <c r="H4">
-        <v>0.00271</v>
+        <v>3.79E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6062,7 +6062,7 @@
         <v>2.59E-05</v>
       </c>
       <c r="H5">
-        <v>0.147</v>
+        <v>0.00205</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6088,7 +6088,7 @@
         <v>5.53E-07</v>
       </c>
       <c r="H6">
-        <v>0.0014</v>
+        <v>1.96E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6114,7 +6114,7 @@
         <v>0.000229</v>
       </c>
       <c r="H7">
-        <v>0.524</v>
+        <v>0.00732</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6140,7 +6140,7 @@
         <v>0.00122</v>
       </c>
       <c r="H8">
-        <v>0.204</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6166,7 +6166,7 @@
         <v>9.55E-06</v>
       </c>
       <c r="H9">
-        <v>0.000298</v>
+        <v>4.17E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6192,7 +6192,7 @@
         <v>2.34E-12</v>
       </c>
       <c r="H10">
-        <v>1.78E-09</v>
+        <v>2.49E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6218,7 +6218,7 @@
         <v>9.380000000000001E-10</v>
       </c>
       <c r="H11">
-        <v>4.46E-08</v>
+        <v>6.24E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6244,7 +6244,7 @@
         <v>8.78E-13</v>
       </c>
       <c r="H12">
-        <v>3.72E-09</v>
+        <v>5.2E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6270,7 +6270,7 @@
         <v>1.19E-07</v>
       </c>
       <c r="H13">
-        <v>0.000816</v>
+        <v>1.14E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6296,7 +6296,7 @@
         <v>8.080000000000001E-06</v>
       </c>
       <c r="H14">
-        <v>0.0157</v>
+        <v>0.000219</v>
       </c>
     </row>
   </sheetData>
@@ -6380,7 +6380,7 @@
         <v>7.96E-07</v>
       </c>
       <c r="H4">
-        <v>0.00259</v>
+        <v>3.62E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6406,7 +6406,7 @@
         <v>2.61E-05</v>
       </c>
       <c r="H5">
-        <v>0.141</v>
+        <v>0.00197</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6432,7 +6432,7 @@
         <v>5.57E-07</v>
       </c>
       <c r="H6">
-        <v>0.00134</v>
+        <v>1.87E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6458,7 +6458,7 @@
         <v>0.00023</v>
       </c>
       <c r="H7">
-        <v>0.501</v>
+        <v>0.00701</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6484,7 +6484,7 @@
         <v>0.00123</v>
       </c>
       <c r="H8">
-        <v>0.195</v>
+        <v>0.00272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6510,7 +6510,7 @@
         <v>9.619999999999999E-06</v>
       </c>
       <c r="H9">
-        <v>0.000285</v>
+        <v>3.99E-06</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6536,7 +6536,7 @@
         <v>2.36E-12</v>
       </c>
       <c r="H10">
-        <v>1.71E-09</v>
+        <v>2.38E-11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6562,7 +6562,7 @@
         <v>9.44E-10</v>
       </c>
       <c r="H11">
-        <v>4.27E-08</v>
+        <v>5.97E-10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6588,7 +6588,7 @@
         <v>8.84E-13</v>
       </c>
       <c r="H12">
-        <v>3.56E-09</v>
+        <v>4.98E-11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6614,7 +6614,7 @@
         <v>1.2E-07</v>
       </c>
       <c r="H13">
-        <v>0.00078</v>
+        <v>1.09E-05</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6640,7 +6640,7 @@
         <v>8.13E-06</v>
       </c>
       <c r="H14">
-        <v>0.015</v>
+        <v>0.00021</v>
       </c>
     </row>
   </sheetData>

--- a/baseline-lcia/hhv_hc_lcia.xlsx
+++ b/baseline-lcia/hhv_hc_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
   </si>
   <si>
     <t>CO2 - HTC</t>
